--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3014784.548674337</v>
+        <v>3009458.638556121</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2070897.599747829</v>
+        <v>2070897.59974783</v>
       </c>
     </row>
     <row r="8">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F2" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="G2" t="n">
-        <v>29.81855126207271</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D3" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>60.36402868517423</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>130.2211784494688</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -828,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="U4" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
       <c r="Y4" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>29.81855126207275</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="G5" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>96.93109718348467</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
@@ -995,7 +995,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>107.8256726521279</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>59.456666199969</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>60.09378870120875</v>
+      </c>
+      <c r="U7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="S7" t="n">
+      <c r="V7" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="T7" t="n">
-        <v>21.94182076836101</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="H8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="G8" t="n">
-        <v>29.81855126207272</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>135.7293992974318</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>97.59782943789268</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>99.31363641129199</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>60.36402868517423</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>21.94182076836087</v>
+      </c>
+      <c r="F10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D10" t="n">
+      <c r="G10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="E10" t="n">
+      <c r="H10" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="F10" t="n">
-        <v>60.09378870120881</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>286.2004085234856</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>274.2117254811673</v>
+        <v>274.2117254811674</v>
       </c>
       <c r="D11" t="n">
-        <v>265.1930295256953</v>
+        <v>265.1930295256954</v>
       </c>
       <c r="E11" t="n">
-        <v>286.9351670956008</v>
+        <v>286.9351670956009</v>
       </c>
       <c r="F11" t="n">
-        <v>306.106983183578</v>
+        <v>306.1069831835781</v>
       </c>
       <c r="G11" t="n">
-        <v>307.5706534574076</v>
+        <v>47.42420714575393</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>49.08216882037408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.75303416897347</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>23.97623331456233</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>229.7067857636648</v>
       </c>
       <c r="W11" t="n">
-        <v>255.0068852416216</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X11" t="n">
-        <v>274.3071434743682</v>
+        <v>274.3071434743683</v>
       </c>
       <c r="Y11" t="n">
         <v>285.703741270567</v>
@@ -1466,10 +1466,10 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H12" t="n">
-        <v>96.51186638509968</v>
+        <v>96.51186638509967</v>
       </c>
       <c r="I12" t="n">
-        <v>59.04773217741017</v>
+        <v>59.04773217741014</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>43.58645961274213</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S12" t="n">
         <v>146.6045057819242</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.81711939818267</v>
+        <v>77.8171193981827</v>
       </c>
       <c r="C13" t="n">
-        <v>64.01711424358315</v>
+        <v>64.01711424358318</v>
       </c>
       <c r="D13" t="n">
-        <v>47.63847864116154</v>
+        <v>47.63847864116157</v>
       </c>
       <c r="E13" t="n">
-        <v>46.58622849694099</v>
+        <v>46.58622849694102</v>
       </c>
       <c r="F13" t="n">
-        <v>47.0531528251273</v>
+        <v>47.05315282512733</v>
       </c>
       <c r="G13" t="n">
-        <v>63.11721021900694</v>
+        <v>63.11721021900696</v>
       </c>
       <c r="H13" t="n">
-        <v>52.00339471222102</v>
+        <v>52.00339471222104</v>
       </c>
       <c r="I13" t="n">
-        <v>32.52363886976942</v>
+        <v>32.52363886976941</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>34.65248806643301</v>
       </c>
       <c r="S13" t="n">
-        <v>103.998995800482</v>
+        <v>103.9989958004823</v>
       </c>
       <c r="T13" t="n">
         <v>126.0444380175787</v>
       </c>
       <c r="U13" t="n">
-        <v>180.4041517713028</v>
+        <v>180.404151771303</v>
       </c>
       <c r="V13" t="n">
-        <v>154.2252557978082</v>
+        <v>154.2252557978083</v>
       </c>
       <c r="W13" t="n">
-        <v>179.3921418684215</v>
+        <v>179.3921418684216</v>
       </c>
       <c r="X13" t="n">
-        <v>125.0372438642246</v>
+        <v>125.0372438642247</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.9121116202923</v>
+        <v>115.9121116202924</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C14" t="n">
-        <v>274.2117254811673</v>
+        <v>274.2117254811674</v>
       </c>
       <c r="D14" t="n">
-        <v>265.1930295256953</v>
+        <v>265.1930295256954</v>
       </c>
       <c r="E14" t="n">
-        <v>286.9351670956008</v>
+        <v>286.9351670956009</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>100.3764307344763</v>
       </c>
       <c r="G14" t="n">
-        <v>187.1659847951943</v>
+        <v>307.5706534574077</v>
       </c>
       <c r="H14" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>229.7067857636647</v>
+        <v>229.7067857636648</v>
       </c>
       <c r="W14" t="n">
-        <v>255.0068852416216</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X14" t="n">
-        <v>274.3071434743682</v>
+        <v>274.3071434743683</v>
       </c>
       <c r="Y14" t="n">
         <v>285.703741270567</v>
@@ -1703,7 +1703,7 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H15" t="n">
-        <v>96.51186638509968</v>
+        <v>96.51186638509967</v>
       </c>
       <c r="I15" t="n">
         <v>59.04773217741014</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>43.58645961274208</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S15" t="n">
         <v>146.6045057819242</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.81711939818267</v>
+        <v>77.8171193981827</v>
       </c>
       <c r="C16" t="n">
-        <v>64.01711424358315</v>
+        <v>64.01711424358318</v>
       </c>
       <c r="D16" t="n">
-        <v>47.63847864116154</v>
+        <v>47.63847864116157</v>
       </c>
       <c r="E16" t="n">
-        <v>46.58622849694099</v>
+        <v>46.58622849694102</v>
       </c>
       <c r="F16" t="n">
-        <v>47.0531528251273</v>
+        <v>47.05315282512733</v>
       </c>
       <c r="G16" t="n">
-        <v>63.11721021900694</v>
+        <v>63.11721021900696</v>
       </c>
       <c r="H16" t="n">
-        <v>52.00339471222102</v>
+        <v>52.00339471222104</v>
       </c>
       <c r="I16" t="n">
-        <v>32.5236388697694</v>
+        <v>32.52363886976942</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65248806643297</v>
+        <v>34.65248806643299</v>
       </c>
       <c r="S16" t="n">
         <v>103.998995800482</v>
@@ -1821,19 +1821,19 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U16" t="n">
-        <v>180.4041517713031</v>
+        <v>180.4041517713032</v>
       </c>
       <c r="V16" t="n">
-        <v>154.2252557978082</v>
+        <v>154.2252557978083</v>
       </c>
       <c r="W16" t="n">
-        <v>179.3921418684215</v>
+        <v>179.3921418684216</v>
       </c>
       <c r="X16" t="n">
-        <v>125.0372438642246</v>
+        <v>125.0372438642247</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.9121116202923</v>
+        <v>115.9121116202924</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.7132774340136</v>
+        <v>236.7132774340137</v>
       </c>
       <c r="C17" t="n">
-        <v>224.7245943916953</v>
+        <v>224.7245943916954</v>
       </c>
       <c r="D17" t="n">
-        <v>215.7058984362233</v>
+        <v>215.7058984362234</v>
       </c>
       <c r="E17" t="n">
         <v>237.4480360061289</v>
       </c>
       <c r="F17" t="n">
-        <v>256.619852094106</v>
+        <v>187.6217842083758</v>
       </c>
       <c r="G17" t="n">
-        <v>258.0835223679356</v>
+        <v>258.0835223679357</v>
       </c>
       <c r="H17" t="n">
         <v>171.2939683072179</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>21.26590307950152</v>
       </c>
       <c r="T17" t="n">
-        <v>18.93770171396717</v>
+        <v>66.66986652019581</v>
       </c>
       <c r="U17" t="n">
-        <v>98.90908842443312</v>
+        <v>98.90908842443318</v>
       </c>
       <c r="V17" t="n">
-        <v>180.2196546741927</v>
+        <v>180.2196546741928</v>
       </c>
       <c r="W17" t="n">
-        <v>205.5197541521496</v>
+        <v>205.5197541521497</v>
       </c>
       <c r="X17" t="n">
-        <v>224.8200123848962</v>
+        <v>224.8200123848963</v>
       </c>
       <c r="Y17" t="n">
-        <v>236.216610181095</v>
+        <v>236.2166101810951</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.58645961274208</v>
+        <v>43.58645961274206</v>
       </c>
       <c r="S18" t="n">
         <v>146.6045057819242</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>28.32998830871068</v>
+        <v>28.32998830871074</v>
       </c>
       <c r="C19" t="n">
-        <v>16.44445314270485</v>
+        <v>14.52998315411122</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>13.63007912953495</v>
+        <v>13.63007912953501</v>
       </c>
       <c r="H19" t="n">
-        <v>2.516263622749026</v>
+        <v>2.516263622749082</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,31 +2046,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.914469988593128</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>54.51186471100998</v>
+        <v>54.51186471101003</v>
       </c>
       <c r="T19" t="n">
-        <v>76.55730692810667</v>
+        <v>76.55730692810673</v>
       </c>
       <c r="U19" t="n">
-        <v>130.9170206818311</v>
+        <v>130.9170206818312</v>
       </c>
       <c r="V19" t="n">
         <v>104.7381247083363</v>
       </c>
       <c r="W19" t="n">
-        <v>129.9050107789495</v>
+        <v>129.9050107789496</v>
       </c>
       <c r="X19" t="n">
-        <v>75.55011277475265</v>
+        <v>75.55011277475271</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.42498053082033</v>
+        <v>66.42498053082039</v>
       </c>
     </row>
     <row r="20">
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>21.26590307950146</v>
       </c>
       <c r="T20" t="n">
-        <v>18.93770171396762</v>
+        <v>66.66986652019575</v>
       </c>
       <c r="U20" t="n">
         <v>98.90908842443312</v>
       </c>
       <c r="V20" t="n">
-        <v>180.2196546741927</v>
+        <v>111.2215867884627</v>
       </c>
       <c r="W20" t="n">
         <v>205.5197541521496</v>
@@ -2177,7 +2177,7 @@
         <v>127.1899580974948</v>
       </c>
       <c r="H21" t="n">
-        <v>96.51186638509968</v>
+        <v>96.51186638509967</v>
       </c>
       <c r="I21" t="n">
         <v>59.04773217741014</v>
@@ -2256,10 +2256,10 @@
         <v>13.63007912953495</v>
       </c>
       <c r="H22" t="n">
-        <v>2.516263622749026</v>
+        <v>2.516263622749025</v>
       </c>
       <c r="I22" t="n">
-        <v>1.914469988593662</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>54.51186471100998</v>
+        <v>56.42633469960369</v>
       </c>
       <c r="T22" t="n">
         <v>76.55730692810667</v>
@@ -2326,7 +2326,7 @@
         <v>215.7058984362233</v>
       </c>
       <c r="E23" t="n">
-        <v>237.4480360061289</v>
+        <v>235.1198346405951</v>
       </c>
       <c r="F23" t="n">
         <v>256.619852094106</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>96.58088705889949</v>
+        <v>98.90908842443312</v>
       </c>
       <c r="V23" t="n">
         <v>180.2196546741927</v>
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.91446998859369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>56.42633469960369</v>
+        <v>54.51186471100998</v>
       </c>
       <c r="T25" t="n">
         <v>76.55730692810667</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.2004085234856</v>
+        <v>286.2004085234857</v>
       </c>
       <c r="C26" t="n">
         <v>274.2117254811674</v>
       </c>
       <c r="D26" t="n">
-        <v>265.1930295256954</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>209.5479347672214</v>
+        <v>286.9351670956009</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>306.1069831835781</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>307.5706534574077</v>
       </c>
       <c r="H26" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.75303416897353</v>
       </c>
       <c r="T26" t="n">
         <v>116.1569976096678</v>
       </c>
       <c r="U26" t="n">
-        <v>148.3962195139052</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>229.7067857636648</v>
+        <v>102.2592310616168</v>
       </c>
       <c r="W26" t="n">
         <v>255.0068852416217</v>
@@ -2623,7 +2623,7 @@
         <v>274.3071434743683</v>
       </c>
       <c r="Y26" t="n">
-        <v>285.703741270567</v>
+        <v>285.7037412705671</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>77.81711939818273</v>
+        <v>77.81711939818275</v>
       </c>
       <c r="C28" t="n">
-        <v>64.01711424358321</v>
+        <v>64.01711424358324</v>
       </c>
       <c r="D28" t="n">
-        <v>47.6384786411616</v>
+        <v>47.63847864116163</v>
       </c>
       <c r="E28" t="n">
-        <v>46.58622849694105</v>
+        <v>46.58622849694108</v>
       </c>
       <c r="F28" t="n">
-        <v>47.05315282512736</v>
+        <v>47.05315282512738</v>
       </c>
       <c r="G28" t="n">
-        <v>63.11721021900699</v>
+        <v>63.11721021900702</v>
       </c>
       <c r="H28" t="n">
-        <v>52.00339471222107</v>
+        <v>52.00339471222109</v>
       </c>
       <c r="I28" t="n">
-        <v>32.52363886976946</v>
+        <v>32.52363886976948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65248806643304</v>
+        <v>34.65248806643305</v>
       </c>
       <c r="S28" t="n">
         <v>103.998995800482</v>
@@ -2769,10 +2769,10 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U28" t="n">
-        <v>180.4041517713028</v>
+        <v>180.4041517713032</v>
       </c>
       <c r="V28" t="n">
-        <v>154.2252557978083</v>
+        <v>154.2252557978084</v>
       </c>
       <c r="W28" t="n">
         <v>179.3921418684216</v>
@@ -2806,10 +2806,10 @@
         <v>306.1069831835781</v>
       </c>
       <c r="G29" t="n">
-        <v>52.75793218793186</v>
+        <v>307.5706534574077</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I29" t="n">
         <v>49.08216882037411</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>148.3962195139052</v>
       </c>
       <c r="V29" t="n">
-        <v>229.7067857636648</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>255.0068852416217</v>
       </c>
       <c r="X29" t="n">
-        <v>274.3071434743683</v>
+        <v>49.57063271886143</v>
       </c>
       <c r="Y29" t="n">
-        <v>285.703741270567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2970,7 +2970,7 @@
         <v>52.00339471222107</v>
       </c>
       <c r="I31" t="n">
-        <v>32.52363886976945</v>
+        <v>32.52363886976897</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65248806643302</v>
+        <v>34.65248806643304</v>
       </c>
       <c r="S31" t="n">
         <v>103.998995800482</v>
@@ -3006,7 +3006,7 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U31" t="n">
-        <v>180.4041517713032</v>
+        <v>180.4041517713028</v>
       </c>
       <c r="V31" t="n">
         <v>154.2252557978083</v>
@@ -3031,7 +3031,7 @@
         <v>231.7848440136043</v>
       </c>
       <c r="C32" t="n">
-        <v>219.7961609712861</v>
+        <v>219.796160971286</v>
       </c>
       <c r="D32" t="n">
         <v>210.777465015814</v>
@@ -3043,7 +3043,7 @@
         <v>251.6914186736967</v>
       </c>
       <c r="G32" t="n">
-        <v>253.1550889475264</v>
+        <v>253.1550889475263</v>
       </c>
       <c r="H32" t="n">
         <v>166.3655348868086</v>
@@ -3082,19 +3082,19 @@
         <v>16.33746965909252</v>
       </c>
       <c r="T32" t="n">
-        <v>61.74143309978649</v>
+        <v>61.74143309978646</v>
       </c>
       <c r="U32" t="n">
-        <v>93.9806550040235</v>
+        <v>93.98065500402396</v>
       </c>
       <c r="V32" t="n">
         <v>175.2912212537834</v>
       </c>
       <c r="W32" t="n">
-        <v>200.5913207317404</v>
+        <v>200.5913207317403</v>
       </c>
       <c r="X32" t="n">
-        <v>219.891578964487</v>
+        <v>219.8915789644869</v>
       </c>
       <c r="Y32" t="n">
         <v>231.2881767606857</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23.4015548883014</v>
+        <v>23.40155488830138</v>
       </c>
       <c r="C34" t="n">
-        <v>9.601549733701887</v>
+        <v>9.601549733701859</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>8.701645709125671</v>
+        <v>8.701645709125643</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>49.5834312906007</v>
+        <v>49.58343129060067</v>
       </c>
       <c r="T34" t="n">
-        <v>125.3439413231328</v>
+        <v>71.62887350769736</v>
       </c>
       <c r="U34" t="n">
-        <v>125.9885872614219</v>
+        <v>179.7036550768575</v>
       </c>
       <c r="V34" t="n">
-        <v>99.809691287927</v>
+        <v>99.80969128792697</v>
       </c>
       <c r="W34" t="n">
-        <v>124.9765773585403</v>
+        <v>124.9765773585402</v>
       </c>
       <c r="X34" t="n">
-        <v>70.62167935434337</v>
+        <v>70.62167935434334</v>
       </c>
       <c r="Y34" t="n">
-        <v>61.49654711041106</v>
+        <v>61.49654711041103</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.7848440136043</v>
+        <v>231.7848440136044</v>
       </c>
       <c r="C35" t="n">
         <v>219.7961609712861</v>
       </c>
       <c r="D35" t="n">
-        <v>210.777465015814</v>
+        <v>210.7774650158141</v>
       </c>
       <c r="E35" t="n">
         <v>232.5196025857196</v>
       </c>
       <c r="F35" t="n">
-        <v>251.6914186736967</v>
+        <v>251.6914186736968</v>
       </c>
       <c r="G35" t="n">
         <v>253.1550889475264</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.33746965909218</v>
+        <v>16.33746965909222</v>
       </c>
       <c r="T35" t="n">
-        <v>61.74143309978648</v>
+        <v>61.74143309978669</v>
       </c>
       <c r="U35" t="n">
-        <v>93.98065500402384</v>
+        <v>93.98065500402396</v>
       </c>
       <c r="V35" t="n">
         <v>175.2912212537835</v>
@@ -3334,7 +3334,7 @@
         <v>219.891578964487</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.2881767606857</v>
+        <v>231.2881767606858</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>77.11662270373684</v>
+        <v>23.40155488830143</v>
       </c>
       <c r="C37" t="n">
-        <v>9.601549733701887</v>
+        <v>9.601549733701916</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>8.701645709125671</v>
+        <v>8.7016457091257</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>49.5834312906007</v>
+        <v>49.58343129060073</v>
       </c>
       <c r="T37" t="n">
-        <v>71.62887350769739</v>
+        <v>71.62887350769742</v>
       </c>
       <c r="U37" t="n">
         <v>125.9885872614219</v>
       </c>
       <c r="V37" t="n">
-        <v>99.809691287927</v>
+        <v>99.80969128792702</v>
       </c>
       <c r="W37" t="n">
         <v>124.9765773585403</v>
       </c>
       <c r="X37" t="n">
-        <v>70.62167935434337</v>
+        <v>124.3367471697785</v>
       </c>
       <c r="Y37" t="n">
-        <v>61.49654711041106</v>
+        <v>61.49654711041109</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.7848440136043</v>
+        <v>231.7848440136044</v>
       </c>
       <c r="C38" t="n">
         <v>219.7961609712861</v>
       </c>
       <c r="D38" t="n">
-        <v>210.777465015814</v>
+        <v>210.7774650158141</v>
       </c>
       <c r="E38" t="n">
         <v>232.5196025857196</v>
       </c>
       <c r="F38" t="n">
-        <v>251.6914186736967</v>
+        <v>251.6914186736968</v>
       </c>
       <c r="G38" t="n">
-        <v>253.1550889475264</v>
+        <v>253.1550889475262</v>
       </c>
       <c r="H38" t="n">
         <v>166.3655348868086</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.33746965909219</v>
+        <v>16.33746965909221</v>
       </c>
       <c r="T38" t="n">
-        <v>61.74143309978669</v>
+        <v>61.74143309978651</v>
       </c>
       <c r="U38" t="n">
-        <v>93.9806550040244</v>
+        <v>93.98065500402387</v>
       </c>
       <c r="V38" t="n">
-        <v>175.2912212537834</v>
+        <v>175.2912212537835</v>
       </c>
       <c r="W38" t="n">
         <v>200.5913207317404</v>
@@ -3571,7 +3571,7 @@
         <v>219.891578964487</v>
       </c>
       <c r="Y38" t="n">
-        <v>231.2881767606857</v>
+        <v>231.2881767606858</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.4015548883014</v>
+        <v>77.11662270373658</v>
       </c>
       <c r="C40" t="n">
-        <v>9.601549733701887</v>
+        <v>9.601549733701916</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>8.701645709125671</v>
+        <v>8.7016457091257</v>
       </c>
       <c r="H40" t="n">
-        <v>53.71506781543544</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>49.5834312906007</v>
+        <v>49.58343129060073</v>
       </c>
       <c r="T40" t="n">
-        <v>71.62887350769739</v>
+        <v>71.62887350769742</v>
       </c>
       <c r="U40" t="n">
         <v>125.9885872614219</v>
       </c>
       <c r="V40" t="n">
-        <v>99.809691287927</v>
+        <v>99.80969128792702</v>
       </c>
       <c r="W40" t="n">
         <v>124.9765773585403</v>
       </c>
       <c r="X40" t="n">
-        <v>70.62167935434337</v>
+        <v>70.6216793543434</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.49654711041106</v>
+        <v>61.49654711041109</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>286.2004085234856</v>
       </c>
       <c r="C41" t="n">
-        <v>274.2117254811674</v>
+        <v>28.32469057866646</v>
       </c>
       <c r="D41" t="n">
         <v>265.1930295256954</v>
@@ -3757,10 +3757,10 @@
         <v>307.5706534574077</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>49.08216882037407</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>23.97623331456323</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>255.0068852416217</v>
@@ -3839,7 +3839,7 @@
         <v>96.51186638509967</v>
       </c>
       <c r="I42" t="n">
-        <v>59.04773217741014</v>
+        <v>59.04773217741013</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>43.58645961274206</v>
+        <v>43.58645961274205</v>
       </c>
       <c r="S42" t="n">
         <v>146.6045057819242</v>
@@ -3918,7 +3918,7 @@
         <v>52.00339471222104</v>
       </c>
       <c r="I43" t="n">
-        <v>32.52363886976941</v>
+        <v>32.52363886976938</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>34.65248806643301</v>
+        <v>34.65248806643299</v>
       </c>
       <c r="S43" t="n">
         <v>103.998995800482</v>
@@ -3954,7 +3954,7 @@
         <v>126.0444380175787</v>
       </c>
       <c r="U43" t="n">
-        <v>180.4041517713033</v>
+        <v>180.4041517713032</v>
       </c>
       <c r="V43" t="n">
         <v>154.2252557978083</v>
@@ -3994,7 +3994,7 @@
         <v>307.5706534574077</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>92.07308677754337</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>70.75303416897347</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>116.1569976096678</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>23.97623331456323</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>255.0068852416217</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>274.3071434743683</v>
@@ -4076,7 +4076,7 @@
         <v>96.51186638509967</v>
       </c>
       <c r="I45" t="n">
-        <v>59.04773217741014</v>
+        <v>59.04773217741013</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>43.58645961274206</v>
+        <v>43.58645961274205</v>
       </c>
       <c r="S45" t="n">
         <v>146.6045057819242</v>
@@ -4155,7 +4155,7 @@
         <v>52.00339471222104</v>
       </c>
       <c r="I46" t="n">
-        <v>32.52363886976942</v>
+        <v>32.52363886976941</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>34.65248806643299</v>
+        <v>34.65248806643298</v>
       </c>
       <c r="S46" t="n">
-        <v>103.9989958004819</v>
+        <v>103.998995800482</v>
       </c>
       <c r="T46" t="n">
         <v>126.0444380175787</v>
       </c>
       <c r="U46" t="n">
-        <v>180.4041517713032</v>
+        <v>180.4041517713028</v>
       </c>
       <c r="V46" t="n">
         <v>154.2252557978083</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="E2" t="n">
-        <v>178.0785040241021</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="F2" t="n">
-        <v>40.97810069336293</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="G2" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="H2" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="I2" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J2" t="n">
-        <v>45.36902758981768</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K2" t="n">
-        <v>179.7411328942751</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L2" t="n">
-        <v>314.1132381987326</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="M2" t="n">
-        <v>448.4853435031901</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="N2" t="n">
-        <v>448.4853435031901</v>
+        <v>413.9746678571669</v>
       </c>
       <c r="O2" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P2" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q2" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R2" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S2" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T2" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y2" t="n">
-        <v>178.0785040241021</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346.0329249539337</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="C3" t="n">
-        <v>208.9325216231946</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="D3" t="n">
-        <v>71.83211829245539</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="E3" t="n">
-        <v>71.83211829245539</v>
+        <v>274.2806499706356</v>
       </c>
       <c r="F3" t="n">
-        <v>71.83211829245539</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G3" t="n">
-        <v>71.83211829245539</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H3" t="n">
-        <v>71.83211829245539</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I3" t="n">
         <v>10.85835194379454</v>
@@ -4412,19 +4412,19 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K3" t="n">
+        <v>71.11249847690068</v>
+      </c>
+      <c r="L3" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
+        <v>139.8012812763547</v>
+      </c>
+      <c r="N3" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="N3" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="O3" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="P3" t="n">
         <v>542.9175971897271</v>
@@ -4433,28 +4433,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R3" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S3" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T3" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U3" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V3" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W3" t="n">
-        <v>346.0329249539337</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="X3" t="n">
-        <v>346.0329249539337</v>
+        <v>411.3810533013748</v>
       </c>
       <c r="Y3" t="n">
-        <v>346.0329249539337</v>
+        <v>411.3810533013748</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="C4" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="D4" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="E4" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="F4" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G4" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H4" t="n">
         <v>10.85835194379454</v>
@@ -4491,7 +4491,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843797</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L4" t="n">
         <v>145.0696190886975</v>
@@ -4515,25 +4515,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S4" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="T4" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="U4" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="V4" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="W4" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="X4" t="n">
         <v>405.8171938589879</v>
       </c>
-      <c r="T4" t="n">
-        <v>268.7167905282488</v>
-      </c>
-      <c r="U4" t="n">
-        <v>131.6163871975096</v>
-      </c>
-      <c r="V4" t="n">
-        <v>131.6163871975096</v>
-      </c>
-      <c r="W4" t="n">
-        <v>131.6163871975096</v>
-      </c>
-      <c r="X4" t="n">
-        <v>131.6163871975096</v>
-      </c>
       <c r="Y4" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589879</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E5" t="n">
-        <v>285.0591586052728</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F5" t="n">
-        <v>147.9587552745337</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="G5" t="n">
         <v>10.85835194379454</v>
@@ -4570,19 +4570,19 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K5" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="L5" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="M5" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="N5" t="n">
         <v>217.2290015210577</v>
       </c>
-      <c r="L5" t="n">
-        <v>314.1132381987326</v>
-      </c>
-      <c r="M5" t="n">
-        <v>448.4853435031901</v>
-      </c>
-      <c r="N5" t="n">
-        <v>448.4853435031901</v>
-      </c>
       <c r="O5" t="n">
-        <v>448.4853435031901</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="P5" t="n">
         <v>448.4853435031901</v>
@@ -4612,7 +4612,7 @@
         <v>315.1789073548413</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>374.2185074239376</v>
+        <v>445.00739801449</v>
       </c>
       <c r="C6" t="n">
-        <v>374.2185074239376</v>
+        <v>445.00739801449</v>
       </c>
       <c r="D6" t="n">
-        <v>374.2185074239376</v>
+        <v>445.00739801449</v>
       </c>
       <c r="E6" t="n">
-        <v>374.2185074239376</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="F6" t="n">
-        <v>239.5247093738119</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G6" t="n">
-        <v>110.7962093970965</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H6" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I6" t="n">
         <v>10.85835194379454</v>
@@ -4649,10 +4649,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L6" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M6" t="n">
         <v>139.8012812763547</v>
@@ -4670,28 +4670,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R6" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y6" t="n">
-        <v>374.2185074239376</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="C7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="D7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="E7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="F7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="G7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="H7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I7" t="n">
         <v>70.91559052962182</v>
@@ -4743,22 +4743,22 @@
         <v>479.9491134615892</v>
       </c>
       <c r="P7" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.3802558434161</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126769</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S7" t="n">
-        <v>230.1794491819378</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T7" t="n">
-        <v>208.015993860361</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="U7" t="n">
-        <v>208.015993860361</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="V7" t="n">
         <v>208.015993860361</v>
@@ -4767,10 +4767,10 @@
         <v>208.015993860361</v>
       </c>
       <c r="X7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="Y7" t="n">
-        <v>208.015993860361</v>
+        <v>70.91559052962182</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.1789073548413</v>
+        <v>444.3339310908456</v>
       </c>
       <c r="C8" t="n">
-        <v>315.1789073548413</v>
+        <v>307.2335277601064</v>
       </c>
       <c r="D8" t="n">
-        <v>315.1789073548413</v>
+        <v>307.2335277601064</v>
       </c>
       <c r="E8" t="n">
-        <v>315.1789073548413</v>
+        <v>307.2335277601064</v>
       </c>
       <c r="F8" t="n">
-        <v>178.0785040241021</v>
+        <v>297.1227411106808</v>
       </c>
       <c r="G8" t="n">
-        <v>147.9587552745337</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="H8" t="n">
         <v>147.9587552745337</v>
@@ -4807,49 +4807,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="L8" t="n">
-        <v>139.8012812763547</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M8" t="n">
-        <v>274.1733865808121</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="N8" t="n">
-        <v>408.5454918852696</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="O8" t="n">
-        <v>542.9175971897271</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R8" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V8" t="n">
-        <v>315.1789073548413</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W8" t="n">
-        <v>315.1789073548413</v>
+        <v>444.3339310908456</v>
       </c>
       <c r="X8" t="n">
-        <v>315.1789073548413</v>
+        <v>444.3339310908456</v>
       </c>
       <c r="Y8" t="n">
-        <v>315.1789073548413</v>
+        <v>444.3339310908456</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>442.6007927338766</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="M9" t="n">
-        <v>145.230457248252</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="N9" t="n">
-        <v>279.6025625527094</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="O9" t="n">
+        <v>274.1733865808121</v>
+      </c>
+      <c r="P9" t="n">
         <v>408.5454918852696</v>
-      </c>
-      <c r="P9" t="n">
-        <v>542.9175971897271</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>483.1333282846729</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S9" t="n">
-        <v>346.0329249539337</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T9" t="n">
-        <v>208.9325216231946</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U9" t="n">
-        <v>71.83211829245539</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>542.9175971897271</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="C10" t="n">
-        <v>405.8171938589878</v>
+        <v>504.380255843416</v>
       </c>
       <c r="D10" t="n">
-        <v>268.7167905282487</v>
+        <v>504.380255843416</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6163871975095</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="F10" t="n">
-        <v>70.91559052962182</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="G10" t="n">
-        <v>70.91559052962182</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H10" t="n">
         <v>70.91559052962182</v>
@@ -4983,31 +4983,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.917597189727</v>
+        <v>504.380255843416</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1507.44325600901</v>
+        <v>1517.258227630637</v>
       </c>
       <c r="C11" t="n">
-        <v>1230.461715118942</v>
+        <v>1240.276686740568</v>
       </c>
       <c r="D11" t="n">
-        <v>962.58996812329</v>
+        <v>972.4049397449166</v>
       </c>
       <c r="E11" t="n">
-        <v>672.7564660065214</v>
+        <v>682.571437628148</v>
       </c>
       <c r="F11" t="n">
-        <v>363.5574930938163</v>
+        <v>373.3724647154429</v>
       </c>
       <c r="G11" t="n">
-        <v>52.88006535906111</v>
+        <v>325.4692251742773</v>
       </c>
       <c r="H11" t="n">
-        <v>52.88006535906111</v>
+        <v>102.4580136624693</v>
       </c>
       <c r="I11" t="n">
-        <v>52.88006535906111</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J11" t="n">
-        <v>164.3365558242302</v>
+        <v>164.3365558242285</v>
       </c>
       <c r="K11" t="n">
-        <v>463.6141607939946</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L11" t="n">
-        <v>884.8645005942228</v>
+        <v>884.8645005942217</v>
       </c>
       <c r="M11" t="n">
-        <v>1359.736328233777</v>
+        <v>1359.736328233776</v>
       </c>
       <c r="N11" t="n">
-        <v>1821.021250113512</v>
+        <v>1821.021250113511</v>
       </c>
       <c r="O11" t="n">
         <v>2204.356532022459</v>
@@ -5062,31 +5062,31 @@
         <v>2499.366866495501</v>
       </c>
       <c r="Q11" t="n">
-        <v>2644.003267953055</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="R11" t="n">
-        <v>2644.003267953055</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="S11" t="n">
-        <v>2644.003267953055</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="T11" t="n">
-        <v>2644.003267953055</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="U11" t="n">
-        <v>2619.784850463599</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="V11" t="n">
-        <v>2619.784850463599</v>
+        <v>2340.508500344331</v>
       </c>
       <c r="W11" t="n">
-        <v>2362.202138098324</v>
+        <v>2082.925787979056</v>
       </c>
       <c r="X11" t="n">
-        <v>2085.124215396942</v>
+        <v>1805.847865277674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1796.534577749904</v>
+        <v>1517.258227630637</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>338.4856781469446</v>
       </c>
       <c r="G12" t="n">
-        <v>210.01097299796</v>
+        <v>210.0109729979599</v>
       </c>
       <c r="H12" t="n">
         <v>112.524239275637</v>
       </c>
       <c r="I12" t="n">
-        <v>52.88006535906111</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J12" t="n">
-        <v>52.88006535906111</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K12" t="n">
-        <v>322.537369171578</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L12" t="n">
-        <v>742.3683682854289</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M12" t="n">
-        <v>1290.427857000778</v>
+        <v>1161.633740332248</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.387752587784</v>
+        <v>1737.593635919254</v>
       </c>
       <c r="O12" t="n">
-        <v>2317.770302583849</v>
+        <v>2188.976185915319</v>
       </c>
       <c r="P12" t="n">
         <v>2538.57135868869</v>
@@ -5175,55 +5175,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.3843259730113</v>
+        <v>409.3843259730115</v>
       </c>
       <c r="C13" t="n">
-        <v>344.7205742118162</v>
+        <v>344.7205742118164</v>
       </c>
       <c r="D13" t="n">
-        <v>296.6008988167035</v>
+        <v>296.6008988167037</v>
       </c>
       <c r="E13" t="n">
-        <v>249.544102355147</v>
+        <v>249.5441023551471</v>
       </c>
       <c r="F13" t="n">
-        <v>202.0156651580487</v>
+        <v>202.0156651580488</v>
       </c>
       <c r="G13" t="n">
-        <v>138.260907361072</v>
+        <v>138.2609073610717</v>
       </c>
       <c r="H13" t="n">
         <v>85.73222583357568</v>
       </c>
       <c r="I13" t="n">
-        <v>52.88006535906111</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J13" t="n">
         <v>111.6253328699333</v>
       </c>
       <c r="K13" t="n">
-        <v>272.3216148233288</v>
+        <v>272.3216148233289</v>
       </c>
       <c r="L13" t="n">
-        <v>506.7964060356825</v>
+        <v>506.7964060356827</v>
       </c>
       <c r="M13" t="n">
-        <v>760.3429972404515</v>
+        <v>760.342997240452</v>
       </c>
       <c r="N13" t="n">
-        <v>1013.541142808861</v>
+        <v>1013.541142808862</v>
       </c>
       <c r="O13" t="n">
-        <v>1244.344479911191</v>
+        <v>1244.344479911192</v>
       </c>
       <c r="P13" t="n">
-        <v>1435.398461212421</v>
+        <v>1435.398461212422</v>
       </c>
       <c r="Q13" t="n">
         <v>1517.953968604048</v>
       </c>
       <c r="R13" t="n">
-        <v>1482.95145540563</v>
+        <v>1482.951455405631</v>
       </c>
       <c r="S13" t="n">
         <v>1377.901964698073</v>
@@ -5235,16 +5235,16 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V13" t="n">
-        <v>912.5748479438407</v>
+        <v>912.574847943841</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3706642383645</v>
+        <v>731.3706642383647</v>
       </c>
       <c r="X13" t="n">
-        <v>605.0704179108649</v>
+        <v>605.0704179108651</v>
       </c>
       <c r="Y13" t="n">
-        <v>487.9874768802665</v>
+        <v>487.9874768802668</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>1299.634617171534</v>
       </c>
       <c r="C14" t="n">
-        <v>1022.653076281466</v>
+        <v>1022.653076281465</v>
       </c>
       <c r="D14" t="n">
-        <v>754.7813292858137</v>
+        <v>754.7813292858136</v>
       </c>
       <c r="E14" t="n">
-        <v>464.9478271690452</v>
+        <v>464.947827169045</v>
       </c>
       <c r="F14" t="n">
-        <v>464.9478271690452</v>
+        <v>363.5574930938164</v>
       </c>
       <c r="G14" t="n">
-        <v>275.8912768708691</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="H14" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="I14" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J14" t="n">
-        <v>164.3365558242288</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K14" t="n">
-        <v>463.6141607939934</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L14" t="n">
-        <v>884.8645005942218</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M14" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N14" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O14" t="n">
         <v>2204.356532022459</v>
@@ -5317,10 +5317,10 @@
         <v>2411.976211626122</v>
       </c>
       <c r="W14" t="n">
-        <v>2154.393499260847</v>
+        <v>2154.393499260848</v>
       </c>
       <c r="X14" t="n">
-        <v>1877.315576559465</v>
+        <v>1877.315576559466</v>
       </c>
       <c r="Y14" t="n">
         <v>1588.725938912428</v>
@@ -5354,22 +5354,22 @@
         <v>112.524239275637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J15" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="K15" t="n">
         <v>322.5373691715781</v>
       </c>
       <c r="L15" t="n">
-        <v>742.3683682854293</v>
+        <v>742.3683682854294</v>
       </c>
       <c r="M15" t="n">
-        <v>1290.427857000778</v>
+        <v>1290.427857000779</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.387752587784</v>
+        <v>1866.387752587785</v>
       </c>
       <c r="O15" t="n">
         <v>2317.77030258385</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.384325973011</v>
+        <v>409.3843259730112</v>
       </c>
       <c r="C16" t="n">
-        <v>344.7205742118159</v>
+        <v>344.720574211816</v>
       </c>
       <c r="D16" t="n">
-        <v>296.6008988167032</v>
+        <v>296.6008988167033</v>
       </c>
       <c r="E16" t="n">
         <v>249.5441023551467</v>
@@ -5427,13 +5427,13 @@
         <v>202.0156651580484</v>
       </c>
       <c r="G16" t="n">
-        <v>138.2609073610716</v>
+        <v>138.2609073610717</v>
       </c>
       <c r="H16" t="n">
-        <v>85.73222583357567</v>
+        <v>85.7322258335757</v>
       </c>
       <c r="I16" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J16" t="n">
         <v>111.6253328699333</v>
@@ -5460,7 +5460,7 @@
         <v>1517.953968604048</v>
       </c>
       <c r="R16" t="n">
-        <v>1482.95145540563</v>
+        <v>1482.951455405631</v>
       </c>
       <c r="S16" t="n">
         <v>1377.901964698073</v>
@@ -5469,19 +5469,19 @@
         <v>1250.584350538903</v>
       </c>
       <c r="U16" t="n">
-        <v>1068.357934608293</v>
+        <v>1068.357934608294</v>
       </c>
       <c r="V16" t="n">
-        <v>912.5748479438405</v>
+        <v>912.5748479438407</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3706642383642</v>
+        <v>731.3706642383644</v>
       </c>
       <c r="X16" t="n">
-        <v>605.0704179108645</v>
+        <v>605.0704179108648</v>
       </c>
       <c r="Y16" t="n">
-        <v>487.9874768802662</v>
+        <v>487.9874768802665</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1430.532460917957</v>
+        <v>1360.837442851563</v>
       </c>
       <c r="C17" t="n">
-        <v>1203.537921128366</v>
+        <v>1133.842903061972</v>
       </c>
       <c r="D17" t="n">
-        <v>985.653175233191</v>
+        <v>915.9581571667969</v>
       </c>
       <c r="E17" t="n">
-        <v>745.8066742168992</v>
+        <v>676.111656150505</v>
       </c>
       <c r="F17" t="n">
-        <v>486.5947024046708</v>
+        <v>486.5947024046709</v>
       </c>
       <c r="G17" t="n">
-        <v>225.9042757703923</v>
+        <v>225.9042757703924</v>
       </c>
       <c r="H17" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="I17" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J17" t="n">
-        <v>164.336555824229</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K17" t="n">
-        <v>463.6141607939935</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L17" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M17" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N17" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O17" t="n">
         <v>2204.356532022459</v>
@@ -5542,25 +5542,25 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S17" t="n">
-        <v>2644.003267953056</v>
+        <v>2622.522557771742</v>
       </c>
       <c r="T17" t="n">
-        <v>2624.874276322786</v>
+        <v>2555.179258256392</v>
       </c>
       <c r="U17" t="n">
-        <v>2524.966106197096</v>
+        <v>2455.271088130702</v>
       </c>
       <c r="V17" t="n">
-        <v>2342.926050970639</v>
+        <v>2273.231032904245</v>
       </c>
       <c r="W17" t="n">
-        <v>2135.330339705841</v>
+        <v>2065.635321639447</v>
       </c>
       <c r="X17" t="n">
-        <v>1908.239418104936</v>
+        <v>1838.544400038542</v>
       </c>
       <c r="Y17" t="n">
-        <v>1669.636781558375</v>
+        <v>1599.941763491981</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>112.524239275637</v>
       </c>
       <c r="I18" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J18" t="n">
         <v>136.6350943303454</v>
       </c>
       <c r="K18" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L18" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M18" t="n">
-        <v>1161.633740332248</v>
+        <v>1374.182885972063</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.593635919254</v>
+        <v>1950.142781559069</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.976185915319</v>
+        <v>2401.525331555134</v>
       </c>
       <c r="P18" t="n">
         <v>2538.57135868869</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.80006121258518</v>
+        <v>83.86625314329882</v>
       </c>
       <c r="C19" t="n">
-        <v>69.18950248258028</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="D19" t="n">
-        <v>69.18950248258028</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="E19" t="n">
-        <v>69.18950248258028</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="F19" t="n">
-        <v>69.18950248258028</v>
+        <v>69.18950248258041</v>
       </c>
       <c r="G19" t="n">
-        <v>55.42174578608034</v>
+        <v>55.4217457860804</v>
       </c>
       <c r="H19" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="I19" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J19" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="K19" t="n">
         <v>110.7126786690969</v>
@@ -5694,31 +5694,31 @@
         <v>759.4711818413905</v>
       </c>
       <c r="Q19" t="n">
-        <v>759.4711818413905</v>
+        <v>757.5373737721045</v>
       </c>
       <c r="R19" t="n">
-        <v>759.4711818413905</v>
+        <v>757.5373737721045</v>
       </c>
       <c r="S19" t="n">
-        <v>704.4086922343097</v>
+        <v>702.4748841650237</v>
       </c>
       <c r="T19" t="n">
-        <v>627.078079175616</v>
+        <v>625.1442711063301</v>
       </c>
       <c r="U19" t="n">
-        <v>494.8386643454836</v>
+        <v>492.9048562761976</v>
       </c>
       <c r="V19" t="n">
-        <v>389.0425787815076</v>
+        <v>387.1087707122215</v>
       </c>
       <c r="W19" t="n">
-        <v>257.8253961765081</v>
+        <v>255.8915881072219</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5121509494852</v>
+        <v>179.578342880199</v>
       </c>
       <c r="Y19" t="n">
-        <v>114.4162110193636</v>
+        <v>112.4824029500773</v>
       </c>
     </row>
     <row r="20">
@@ -5746,19 +5746,19 @@
         <v>225.9042757703923</v>
       </c>
       <c r="H20" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="I20" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J20" t="n">
-        <v>164.3365558242289</v>
+        <v>164.336555824229</v>
       </c>
       <c r="K20" t="n">
         <v>463.6141607939936</v>
       </c>
       <c r="L20" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M20" t="n">
         <v>1359.736328233776</v>
@@ -5779,13 +5779,13 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S20" t="n">
-        <v>2644.003267953056</v>
+        <v>2622.522557771742</v>
       </c>
       <c r="T20" t="n">
-        <v>2624.874276322786</v>
+        <v>2555.179258256392</v>
       </c>
       <c r="U20" t="n">
-        <v>2524.966106197096</v>
+        <v>2455.271088130702</v>
       </c>
       <c r="V20" t="n">
         <v>2342.926050970639</v>
@@ -5828,28 +5828,28 @@
         <v>112.524239275637</v>
       </c>
       <c r="I21" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J21" t="n">
-        <v>52.88006535906113</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K21" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L21" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M21" t="n">
-        <v>1161.633740332248</v>
+        <v>1374.182885972063</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.593635919254</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.976185915319</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P21" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q21" t="n">
         <v>2538.57135868869</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.80006121258518</v>
+        <v>83.86625314329864</v>
       </c>
       <c r="C22" t="n">
-        <v>71.12331055186682</v>
+        <v>69.18950248258028</v>
       </c>
       <c r="D22" t="n">
-        <v>71.12331055186682</v>
+        <v>69.18950248258028</v>
       </c>
       <c r="E22" t="n">
-        <v>71.12331055186682</v>
+        <v>69.18950248258028</v>
       </c>
       <c r="F22" t="n">
-        <v>71.12331055186682</v>
+        <v>69.18950248258028</v>
       </c>
       <c r="G22" t="n">
-        <v>57.35555385536687</v>
+        <v>55.42174578608034</v>
       </c>
       <c r="H22" t="n">
-        <v>54.81387342834766</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="I22" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="J22" t="n">
-        <v>52.88006535906113</v>
+        <v>52.88006535906112</v>
       </c>
       <c r="K22" t="n">
         <v>110.7126786690969</v>
@@ -5937,25 +5937,25 @@
         <v>759.4711818413905</v>
       </c>
       <c r="S22" t="n">
-        <v>704.4086922343097</v>
+        <v>702.4748841650231</v>
       </c>
       <c r="T22" t="n">
-        <v>627.078079175616</v>
+        <v>625.1442711063295</v>
       </c>
       <c r="U22" t="n">
-        <v>494.8386643454836</v>
+        <v>492.9048562761971</v>
       </c>
       <c r="V22" t="n">
-        <v>389.0425787815076</v>
+        <v>387.108770712221</v>
       </c>
       <c r="W22" t="n">
-        <v>257.8253961765081</v>
+        <v>255.8915881072215</v>
       </c>
       <c r="X22" t="n">
-        <v>181.5121509494852</v>
+        <v>179.5783428801986</v>
       </c>
       <c r="Y22" t="n">
-        <v>114.4162110193636</v>
+        <v>112.4824029500771</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1430.532460917957</v>
+        <v>1428.180742366913</v>
       </c>
       <c r="C23" t="n">
-        <v>1203.537921128366</v>
+        <v>1201.186202577322</v>
       </c>
       <c r="D23" t="n">
-        <v>985.653175233191</v>
+        <v>983.3014566821467</v>
       </c>
       <c r="E23" t="n">
         <v>745.8066742168992</v>
@@ -5986,22 +5986,22 @@
         <v>52.88006535906113</v>
       </c>
       <c r="I23" t="n">
-        <v>52.88006535906098</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J23" t="n">
-        <v>164.3365558242288</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K23" t="n">
-        <v>463.6141607939934</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L23" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M23" t="n">
         <v>1359.736328233776</v>
       </c>
       <c r="N23" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O23" t="n">
         <v>2204.356532022459</v>
@@ -6022,19 +6022,19 @@
         <v>2622.522557771742</v>
       </c>
       <c r="U23" t="n">
-        <v>2524.966106197096</v>
+        <v>2522.614387646052</v>
       </c>
       <c r="V23" t="n">
-        <v>2342.926050970639</v>
+        <v>2340.574332419595</v>
       </c>
       <c r="W23" t="n">
-        <v>2135.330339705841</v>
+        <v>2132.978621154797</v>
       </c>
       <c r="X23" t="n">
-        <v>1908.239418104936</v>
+        <v>1905.887699553892</v>
       </c>
       <c r="Y23" t="n">
-        <v>1669.636781558375</v>
+        <v>1667.285063007331</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>52.88006535906113</v>
       </c>
       <c r="K24" t="n">
-        <v>193.7432525030474</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="L24" t="n">
-        <v>613.5742516168986</v>
+        <v>472.7110644729123</v>
       </c>
       <c r="M24" t="n">
-        <v>1161.633740332248</v>
+        <v>1020.770553188261</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.593635919254</v>
+        <v>1596.730448775268</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.976185915319</v>
+        <v>2048.112998771333</v>
       </c>
       <c r="P24" t="n">
-        <v>2538.57135868869</v>
+        <v>2397.708171544704</v>
       </c>
       <c r="Q24" t="n">
         <v>2538.57135868869</v>
@@ -6168,10 +6168,10 @@
         <v>759.4711818413905</v>
       </c>
       <c r="Q25" t="n">
-        <v>759.4711818413905</v>
+        <v>757.5373737721039</v>
       </c>
       <c r="R25" t="n">
-        <v>759.4711818413905</v>
+        <v>757.5373737721039</v>
       </c>
       <c r="S25" t="n">
         <v>702.4748841650231</v>
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1032.40914532954</v>
+        <v>1239.571509013358</v>
       </c>
       <c r="C26" t="n">
-        <v>755.4276044394719</v>
+        <v>962.5899681232902</v>
       </c>
       <c r="D26" t="n">
-        <v>487.55585744382</v>
+        <v>962.5899681232902</v>
       </c>
       <c r="E26" t="n">
-        <v>275.8912768708691</v>
+        <v>672.7564660065216</v>
       </c>
       <c r="F26" t="n">
-        <v>275.8912768708691</v>
+        <v>363.5574930938164</v>
       </c>
       <c r="G26" t="n">
-        <v>275.8912768708691</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="H26" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="I26" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J26" t="n">
-        <v>164.3365558242285</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K26" t="n">
-        <v>463.6141607939935</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L26" t="n">
-        <v>884.8645005942217</v>
+        <v>884.8645005942221</v>
       </c>
       <c r="M26" t="n">
         <v>1359.736328233776</v>
@@ -6253,25 +6253,25 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S26" t="n">
-        <v>2644.003267953056</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="T26" t="n">
-        <v>2526.67296733723</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="U26" t="n">
-        <v>2376.777796111063</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="V26" t="n">
-        <v>2144.750739784129</v>
+        <v>2351.913103467947</v>
       </c>
       <c r="W26" t="n">
-        <v>1887.168027418854</v>
+        <v>2094.330391102673</v>
       </c>
       <c r="X26" t="n">
-        <v>1610.090104717472</v>
+        <v>1817.252468401291</v>
       </c>
       <c r="Y26" t="n">
-        <v>1321.500467070435</v>
+        <v>1528.662830754253</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>112.524239275637</v>
       </c>
       <c r="I27" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J27" t="n">
-        <v>52.88006535906112</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K27" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L27" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M27" t="n">
-        <v>1161.633740332248</v>
+        <v>972.1101174878013</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.593635919254</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.976185915319</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P27" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q27" t="n">
         <v>2538.57135868869</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.3843259730114</v>
+        <v>409.3843259730115</v>
       </c>
       <c r="C28" t="n">
-        <v>344.7205742118163</v>
+        <v>344.7205742118164</v>
       </c>
       <c r="D28" t="n">
-        <v>296.6008988167035</v>
+        <v>296.6008988167036</v>
       </c>
       <c r="E28" t="n">
         <v>249.5441023551469</v>
       </c>
       <c r="F28" t="n">
-        <v>202.0156651580485</v>
+        <v>202.0156651580486</v>
       </c>
       <c r="G28" t="n">
         <v>138.2609073610718</v>
       </c>
       <c r="H28" t="n">
-        <v>85.73222583357573</v>
+        <v>85.73222583357575</v>
       </c>
       <c r="I28" t="n">
-        <v>52.88006535906112</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="J28" t="n">
         <v>111.6253328699333</v>
@@ -6390,10 +6390,10 @@
         <v>272.3216148233288</v>
       </c>
       <c r="L28" t="n">
-        <v>506.7964060356827</v>
+        <v>506.7964060356825</v>
       </c>
       <c r="M28" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404515</v>
       </c>
       <c r="N28" t="n">
         <v>1013.541142808862</v>
@@ -6402,34 +6402,34 @@
         <v>1244.344479911191</v>
       </c>
       <c r="P28" t="n">
-        <v>1435.398461212421</v>
+        <v>1435.398461212422</v>
       </c>
       <c r="Q28" t="n">
-        <v>1517.953968604048</v>
+        <v>1517.953968604049</v>
       </c>
       <c r="R28" t="n">
-        <v>1482.951455405631</v>
+        <v>1482.951455405632</v>
       </c>
       <c r="S28" t="n">
-        <v>1377.901964698073</v>
+        <v>1377.901964698074</v>
       </c>
       <c r="T28" t="n">
-        <v>1250.584350538903</v>
+        <v>1250.584350538904</v>
       </c>
       <c r="U28" t="n">
         <v>1068.357934608294</v>
       </c>
       <c r="V28" t="n">
-        <v>912.574847943841</v>
+        <v>912.5748479438414</v>
       </c>
       <c r="W28" t="n">
-        <v>731.3706642383646</v>
+        <v>731.370664238365</v>
       </c>
       <c r="X28" t="n">
-        <v>605.070417910865</v>
+        <v>605.0704179108652</v>
       </c>
       <c r="Y28" t="n">
-        <v>487.9874768802667</v>
+        <v>487.9874768802669</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1299.634617171534</v>
+        <v>1780.032415824226</v>
       </c>
       <c r="C29" t="n">
-        <v>1022.653076281465</v>
+        <v>1503.050874934158</v>
       </c>
       <c r="D29" t="n">
-        <v>754.7813292858136</v>
+        <v>1235.179127938506</v>
       </c>
       <c r="E29" t="n">
-        <v>464.947827169045</v>
+        <v>945.3456258217377</v>
       </c>
       <c r="F29" t="n">
-        <v>155.7488542563399</v>
+        <v>636.1466529090326</v>
       </c>
       <c r="G29" t="n">
-        <v>102.4580136624693</v>
+        <v>325.4692251742773</v>
       </c>
       <c r="H29" t="n">
         <v>102.4580136624693</v>
@@ -6493,22 +6493,22 @@
         <v>2644.003267953056</v>
       </c>
       <c r="T29" t="n">
-        <v>2644.003267953056</v>
+        <v>2526.67296733723</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.003267953056</v>
+        <v>2376.777796111063</v>
       </c>
       <c r="V29" t="n">
-        <v>2411.976211626122</v>
+        <v>2376.777796111063</v>
       </c>
       <c r="W29" t="n">
-        <v>2154.393499260848</v>
+        <v>2119.195083745789</v>
       </c>
       <c r="X29" t="n">
-        <v>1877.315576559466</v>
+        <v>2069.123737565121</v>
       </c>
       <c r="Y29" t="n">
-        <v>1588.725938912428</v>
+        <v>2069.123737565121</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J30" t="n">
-        <v>52.88006535906113</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K30" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L30" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M30" t="n">
-        <v>1161.633740332248</v>
+        <v>1374.182885972063</v>
       </c>
       <c r="N30" t="n">
         <v>1737.593635919254</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.3843259730114</v>
+        <v>409.3843259730108</v>
       </c>
       <c r="C31" t="n">
-        <v>344.7205742118163</v>
+        <v>344.7205742118157</v>
       </c>
       <c r="D31" t="n">
-        <v>296.6008988167035</v>
+        <v>296.600898816703</v>
       </c>
       <c r="E31" t="n">
-        <v>249.5441023551469</v>
+        <v>249.5441023551464</v>
       </c>
       <c r="F31" t="n">
-        <v>202.0156651580485</v>
+        <v>202.015665158048</v>
       </c>
       <c r="G31" t="n">
-        <v>138.2609073610718</v>
+        <v>138.2609073610713</v>
       </c>
       <c r="H31" t="n">
-        <v>85.73222583357573</v>
+        <v>85.73222583357524</v>
       </c>
       <c r="I31" t="n">
         <v>52.88006535906113</v>
@@ -6627,10 +6627,10 @@
         <v>272.3216148233288</v>
       </c>
       <c r="L31" t="n">
-        <v>506.7964060356826</v>
+        <v>506.7964060356825</v>
       </c>
       <c r="M31" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404515</v>
       </c>
       <c r="N31" t="n">
         <v>1013.541142808862</v>
@@ -6639,34 +6639,34 @@
         <v>1244.344479911191</v>
       </c>
       <c r="P31" t="n">
-        <v>1435.398461212422</v>
+        <v>1435.398461212421</v>
       </c>
       <c r="Q31" t="n">
         <v>1517.953968604048</v>
       </c>
       <c r="R31" t="n">
-        <v>1482.951455405631</v>
+        <v>1482.95145540563</v>
       </c>
       <c r="S31" t="n">
         <v>1377.901964698073</v>
       </c>
       <c r="T31" t="n">
-        <v>1250.584350538903</v>
+        <v>1250.584350538902</v>
       </c>
       <c r="U31" t="n">
-        <v>1068.357934608294</v>
+        <v>1068.357934608293</v>
       </c>
       <c r="V31" t="n">
-        <v>912.5748479438411</v>
+        <v>912.5748479438405</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3706642383647</v>
+        <v>731.3706642383642</v>
       </c>
       <c r="X31" t="n">
-        <v>605.070417910865</v>
+        <v>605.0704179108645</v>
       </c>
       <c r="Y31" t="n">
-        <v>487.9874768802667</v>
+        <v>487.9874768802661</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1400.663167460931</v>
+        <v>1400.663167460932</v>
       </c>
       <c r="C32" t="n">
         <v>1178.646843247511</v>
       </c>
       <c r="D32" t="n">
-        <v>965.7403129285068</v>
+        <v>965.7403129285071</v>
       </c>
       <c r="E32" t="n">
-        <v>730.872027488386</v>
+        <v>730.8720274883864</v>
       </c>
       <c r="F32" t="n">
-        <v>476.6382712523288</v>
+        <v>476.6382712523291</v>
       </c>
       <c r="G32" t="n">
         <v>220.9260601942213</v>
@@ -6700,10 +6700,10 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J32" t="n">
-        <v>164.336555824229</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K32" t="n">
-        <v>463.6141607939935</v>
+        <v>463.6141607939936</v>
       </c>
       <c r="L32" t="n">
         <v>884.8645005942221</v>
@@ -6779,25 +6779,25 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J33" t="n">
-        <v>52.88006535906113</v>
+        <v>136.6350943303454</v>
       </c>
       <c r="K33" t="n">
-        <v>193.7432525030474</v>
+        <v>406.2923981428624</v>
       </c>
       <c r="L33" t="n">
-        <v>613.5742516168986</v>
+        <v>826.1233972567136</v>
       </c>
       <c r="M33" t="n">
-        <v>1161.633740332248</v>
+        <v>1374.182885972063</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.593635919254</v>
+        <v>1950.142781559069</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.976185915319</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="P33" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q33" t="n">
         <v>2538.57135868869</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>71.36814156393746</v>
+        <v>71.3681415639374</v>
       </c>
       <c r="C34" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939006</v>
       </c>
       <c r="D34" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939006</v>
       </c>
       <c r="E34" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939006</v>
       </c>
       <c r="F34" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939006</v>
       </c>
       <c r="G34" t="n">
         <v>52.88006535906113</v>
@@ -6888,22 +6888,22 @@
         <v>709.3869078104807</v>
       </c>
       <c r="T34" t="n">
-        <v>582.7768660699425</v>
+        <v>637.0345103279581</v>
       </c>
       <c r="U34" t="n">
-        <v>455.515666815981</v>
+        <v>455.5156668159808</v>
       </c>
       <c r="V34" t="n">
-        <v>354.6977968281759</v>
+        <v>354.6977968281758</v>
       </c>
       <c r="W34" t="n">
-        <v>228.4588297993474</v>
+        <v>228.4588297993473</v>
       </c>
       <c r="X34" t="n">
-        <v>157.1238001484955</v>
+        <v>157.1238001484954</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.00607579454494</v>
+        <v>95.00607579454486</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1400.663167460932</v>
+        <v>1400.663167460931</v>
       </c>
       <c r="C35" t="n">
         <v>1178.646843247511</v>
       </c>
       <c r="D35" t="n">
-        <v>965.7403129285071</v>
+        <v>965.7403129285069</v>
       </c>
       <c r="E35" t="n">
         <v>730.8720274883863</v>
       </c>
       <c r="F35" t="n">
-        <v>476.6382712523289</v>
+        <v>476.6382712523291</v>
       </c>
       <c r="G35" t="n">
-        <v>220.9260601942213</v>
+        <v>220.9260601942214</v>
       </c>
       <c r="H35" t="n">
         <v>52.88006535906113</v>
@@ -6949,7 +6949,7 @@
         <v>1359.736328233776</v>
       </c>
       <c r="N35" t="n">
-        <v>1821.021250113511</v>
+        <v>1821.021250113512</v>
       </c>
       <c r="O35" t="n">
         <v>2204.356532022459</v>
@@ -7028,7 +7028,7 @@
         <v>1374.182885972063</v>
       </c>
       <c r="N36" t="n">
-        <v>1950.142781559069</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O36" t="n">
         <v>1999.452563070873</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.36814156393746</v>
+        <v>71.36814156393751</v>
       </c>
       <c r="C37" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="D37" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="E37" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="F37" t="n">
-        <v>61.66960647939009</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="G37" t="n">
         <v>52.88006535906113</v>
@@ -7128,19 +7128,19 @@
         <v>637.0345103279581</v>
       </c>
       <c r="U37" t="n">
-        <v>509.7733110739966</v>
+        <v>509.7733110739965</v>
       </c>
       <c r="V37" t="n">
         <v>408.9554410861915</v>
       </c>
       <c r="W37" t="n">
-        <v>282.716474057363</v>
+        <v>282.7164740573629</v>
       </c>
       <c r="X37" t="n">
-        <v>211.3814444065111</v>
+        <v>157.1238001484956</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.2637200525605</v>
+        <v>95.00607579454503</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1178.646843247511</v>
       </c>
       <c r="D38" t="n">
-        <v>965.7403129285068</v>
+        <v>965.7403129285069</v>
       </c>
       <c r="E38" t="n">
         <v>730.872027488386</v>
       </c>
       <c r="F38" t="n">
-        <v>476.6382712523288</v>
+        <v>476.6382712523287</v>
       </c>
       <c r="G38" t="n">
-        <v>220.9260601942213</v>
+        <v>220.9260601942214</v>
       </c>
       <c r="H38" t="n">
         <v>52.88006535906113</v>
@@ -7174,10 +7174,10 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J38" t="n">
-        <v>164.3365558242289</v>
+        <v>164.336555824229</v>
       </c>
       <c r="K38" t="n">
-        <v>463.6141607939936</v>
+        <v>463.6141607939935</v>
       </c>
       <c r="L38" t="n">
         <v>884.8645005942221</v>
@@ -7210,7 +7210,7 @@
         <v>2470.205734859215</v>
       </c>
       <c r="V38" t="n">
-        <v>2293.143895208928</v>
+        <v>2293.143895208929</v>
       </c>
       <c r="W38" t="n">
         <v>2090.526399520302</v>
@@ -7253,25 +7253,25 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J39" t="n">
-        <v>136.6350943303454</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="K39" t="n">
-        <v>406.2923981428624</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="L39" t="n">
-        <v>826.1233972567136</v>
+        <v>472.7110644729123</v>
       </c>
       <c r="M39" t="n">
-        <v>1374.182885972063</v>
+        <v>1020.770553188261</v>
       </c>
       <c r="N39" t="n">
-        <v>1548.070013074807</v>
+        <v>1596.730448775268</v>
       </c>
       <c r="O39" t="n">
-        <v>1999.452563070873</v>
+        <v>2048.112998771333</v>
       </c>
       <c r="P39" t="n">
-        <v>2349.047735844244</v>
+        <v>2397.708171544704</v>
       </c>
       <c r="Q39" t="n">
         <v>2538.57135868869</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>125.625785821953</v>
+        <v>71.36814156393751</v>
       </c>
       <c r="C40" t="n">
-        <v>115.9272507374057</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="D40" t="n">
-        <v>115.9272507374057</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="E40" t="n">
-        <v>115.9272507374057</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="F40" t="n">
-        <v>115.9272507374057</v>
+        <v>61.66960647939012</v>
       </c>
       <c r="G40" t="n">
-        <v>107.1377096170767</v>
+        <v>52.88006535906113</v>
       </c>
       <c r="H40" t="n">
         <v>52.88006535906113</v>
@@ -7365,19 +7365,19 @@
         <v>637.0345103279581</v>
       </c>
       <c r="U40" t="n">
-        <v>509.7733110739966</v>
+        <v>509.7733110739965</v>
       </c>
       <c r="V40" t="n">
         <v>408.9554410861915</v>
       </c>
       <c r="W40" t="n">
-        <v>282.716474057363</v>
+        <v>282.7164740573629</v>
       </c>
       <c r="X40" t="n">
-        <v>211.3814444065111</v>
+        <v>211.3814444065109</v>
       </c>
       <c r="Y40" t="n">
-        <v>149.2637200525605</v>
+        <v>149.2637200525603</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1507.44325600901</v>
+        <v>1531.661673498468</v>
       </c>
       <c r="C41" t="n">
-        <v>1230.461715118942</v>
+        <v>1503.050874934158</v>
       </c>
       <c r="D41" t="n">
-        <v>962.5899681232902</v>
+        <v>1235.179127938506</v>
       </c>
       <c r="E41" t="n">
-        <v>672.7564660065216</v>
+        <v>945.3456258217377</v>
       </c>
       <c r="F41" t="n">
-        <v>363.5574930938164</v>
+        <v>636.1466529090326</v>
       </c>
       <c r="G41" t="n">
-        <v>52.88006535906113</v>
+        <v>325.4692251742773</v>
       </c>
       <c r="H41" t="n">
-        <v>52.88006535906113</v>
+        <v>102.4580136624693</v>
       </c>
       <c r="I41" t="n">
         <v>52.88006535906113</v>
       </c>
       <c r="J41" t="n">
-        <v>164.3365558242288</v>
+        <v>164.3365558242289</v>
       </c>
       <c r="K41" t="n">
-        <v>463.6141607939934</v>
+        <v>463.6141607939932</v>
       </c>
       <c r="L41" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942217</v>
       </c>
       <c r="M41" t="n">
         <v>1359.736328233776</v>
@@ -7447,16 +7447,16 @@
         <v>2644.003267953056</v>
       </c>
       <c r="V41" t="n">
-        <v>2619.784850463599</v>
+        <v>2644.003267953056</v>
       </c>
       <c r="W41" t="n">
-        <v>2362.202138098324</v>
+        <v>2386.420555587782</v>
       </c>
       <c r="X41" t="n">
-        <v>2085.124215396942</v>
+        <v>2109.3426328864</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.534577749905</v>
+        <v>1820.752995239362</v>
       </c>
     </row>
     <row r="42">
@@ -7502,7 +7502,7 @@
         <v>1290.427857000779</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.387752587785</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O42" t="n">
         <v>1999.452563070873</v>
@@ -7548,10 +7548,10 @@
         <v>409.3843259730112</v>
       </c>
       <c r="C43" t="n">
-        <v>344.720574211816</v>
+        <v>344.7205742118161</v>
       </c>
       <c r="D43" t="n">
-        <v>296.6008988167033</v>
+        <v>296.6008988167034</v>
       </c>
       <c r="E43" t="n">
         <v>249.5441023551467</v>
@@ -7560,10 +7560,10 @@
         <v>202.0156651580484</v>
       </c>
       <c r="G43" t="n">
-        <v>138.2609073610717</v>
+        <v>138.2609073610716</v>
       </c>
       <c r="H43" t="n">
-        <v>85.73222583357568</v>
+        <v>85.73222583357565</v>
       </c>
       <c r="I43" t="n">
         <v>52.88006535906113</v>
@@ -7578,7 +7578,7 @@
         <v>506.7964060356827</v>
       </c>
       <c r="M43" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404518</v>
       </c>
       <c r="N43" t="n">
         <v>1013.541142808862</v>
@@ -7587,7 +7587,7 @@
         <v>1244.344479911191</v>
       </c>
       <c r="P43" t="n">
-        <v>1435.398461212422</v>
+        <v>1435.398461212421</v>
       </c>
       <c r="Q43" t="n">
         <v>1517.953968604048</v>
@@ -7596,7 +7596,7 @@
         <v>1482.951455405631</v>
       </c>
       <c r="S43" t="n">
-        <v>1377.901964698074</v>
+        <v>1377.901964698073</v>
       </c>
       <c r="T43" t="n">
         <v>1250.584350538903</v>
@@ -7605,13 +7605,13 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V43" t="n">
-        <v>912.574847943841</v>
+        <v>912.5748479438407</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3706642383647</v>
+        <v>731.3706642383644</v>
       </c>
       <c r="X43" t="n">
-        <v>605.0704179108651</v>
+        <v>605.0704179108648</v>
       </c>
       <c r="Y43" t="n">
         <v>487.9874768802665</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1507.44325600901</v>
+        <v>1600.446373966125</v>
       </c>
       <c r="C44" t="n">
-        <v>1230.461715118942</v>
+        <v>1323.464833076056</v>
       </c>
       <c r="D44" t="n">
-        <v>962.5899681232902</v>
+        <v>1055.593086080405</v>
       </c>
       <c r="E44" t="n">
-        <v>672.7564660065216</v>
+        <v>765.759583963636</v>
       </c>
       <c r="F44" t="n">
-        <v>363.5574930938164</v>
+        <v>456.5606110509309</v>
       </c>
       <c r="G44" t="n">
-        <v>52.88006535906113</v>
+        <v>145.8831833161756</v>
       </c>
       <c r="H44" t="n">
         <v>52.88006535906113</v>
@@ -7648,13 +7648,13 @@
         <v>52.88006535906113</v>
       </c>
       <c r="J44" t="n">
-        <v>164.3365558242288</v>
+        <v>164.3365558242285</v>
       </c>
       <c r="K44" t="n">
-        <v>463.6141607939934</v>
+        <v>463.6141607939932</v>
       </c>
       <c r="L44" t="n">
-        <v>884.8645005942219</v>
+        <v>884.8645005942217</v>
       </c>
       <c r="M44" t="n">
         <v>1359.736328233776</v>
@@ -7675,25 +7675,25 @@
         <v>2644.003267953056</v>
       </c>
       <c r="S44" t="n">
-        <v>2644.003267953056</v>
+        <v>2572.535556671265</v>
       </c>
       <c r="T44" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="U44" t="n">
-        <v>2644.003267953056</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="V44" t="n">
-        <v>2619.784850463599</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="W44" t="n">
-        <v>2362.202138098324</v>
+        <v>2455.205256055439</v>
       </c>
       <c r="X44" t="n">
-        <v>2085.124215396942</v>
+        <v>2178.127333354057</v>
       </c>
       <c r="Y44" t="n">
-        <v>1796.534577749905</v>
+        <v>1889.537695707019</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>136.6350943303454</v>
       </c>
       <c r="K45" t="n">
-        <v>406.2923981428624</v>
+        <v>406.2923981428625</v>
       </c>
       <c r="L45" t="n">
         <v>826.1233972567136</v>
       </c>
       <c r="M45" t="n">
-        <v>1374.182885972063</v>
+        <v>972.1101174878013</v>
       </c>
       <c r="N45" t="n">
-        <v>1950.142781559069</v>
+        <v>1548.070013074807</v>
       </c>
       <c r="O45" t="n">
-        <v>2401.525331555134</v>
+        <v>1999.452563070873</v>
       </c>
       <c r="P45" t="n">
-        <v>2538.57135868869</v>
+        <v>2349.047735844244</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.57135868869</v>
@@ -7800,7 +7800,7 @@
         <v>138.2609073610717</v>
       </c>
       <c r="H46" t="n">
-        <v>85.7322258335757</v>
+        <v>85.73222583357568</v>
       </c>
       <c r="I46" t="n">
         <v>52.88006535906113</v>
@@ -7809,13 +7809,13 @@
         <v>111.6253328699333</v>
       </c>
       <c r="K46" t="n">
-        <v>272.3216148233289</v>
+        <v>272.321614823329</v>
       </c>
       <c r="L46" t="n">
-        <v>506.7964060356827</v>
+        <v>506.7964060356828</v>
       </c>
       <c r="M46" t="n">
-        <v>760.3429972404517</v>
+        <v>760.3429972404518</v>
       </c>
       <c r="N46" t="n">
         <v>1013.541142808862</v>
@@ -7842,13 +7842,13 @@
         <v>1068.357934608294</v>
       </c>
       <c r="V46" t="n">
-        <v>912.5748479438407</v>
+        <v>912.574847943841</v>
       </c>
       <c r="W46" t="n">
-        <v>731.3706642383644</v>
+        <v>731.3706642383647</v>
       </c>
       <c r="X46" t="n">
-        <v>605.0704179108648</v>
+        <v>605.0704179108651</v>
       </c>
       <c r="Y46" t="n">
         <v>487.9874768802665</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>181.9590657572489</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
         <v>314.5524032714785</v>
@@ -7993,13 +7993,13 @@
         <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>317.2001799443227</v>
       </c>
       <c r="P2" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q2" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8060,22 +8060,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>181.378778055004</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>248.3048328685796</v>
+        <v>181.9580424594851</v>
       </c>
       <c r="M3" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085429</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q3" t="n">
         <v>113.7351914448925</v>
@@ -8218,22 +8218,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>314.5524032714785</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L5" t="n">
-        <v>289.4230774940994</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M5" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O5" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P5" t="n">
-        <v>187.8768090511565</v>
+        <v>285.7396743821413</v>
       </c>
       <c r="Q5" t="n">
         <v>276.0094878578761</v>
@@ -8297,13 +8297,13 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L6" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
         <v>242.4445403651401</v>
@@ -8391,7 +8391,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P7" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8455,25 +8455,25 @@
         <v>147.0997974279326</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>213.682272303363</v>
       </c>
       <c r="L8" t="n">
-        <v>321.8055953273168</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
         <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8531,7 +8531,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
         <v>111.9961691666667</v>
@@ -8540,19 +8540,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>251.2133018590717</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
         <v>242.4445403651401</v>
       </c>
       <c r="O9" t="n">
-        <v>246.1048317753133</v>
+        <v>185.2420574994484</v>
       </c>
       <c r="P9" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8768,7 +8768,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>79.31730657759798</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8777,7 +8777,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>605.4165828749999</v>
+        <v>390.720476168116</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
@@ -8786,10 +8786,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>283.9065318899694</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>81.66247118342571</v>
+        <v>81.66247118342557</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9005,7 +9005,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>79.31730657759789</v>
+        <v>79.31730657759788</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9023,10 +9023,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>283.9065318899683</v>
+        <v>283.9065318899678</v>
       </c>
       <c r="Q15" t="n">
-        <v>81.66247118342559</v>
+        <v>81.66247118342557</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9245,7 +9245,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>129.1087014094684</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9260,10 +9260,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>199.3054925250345</v>
       </c>
       <c r="Q18" t="n">
-        <v>81.66247118342559</v>
+        <v>81.66247118342558</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9479,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>79.31730657759789</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9491,7 +9491,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>623.1450866466196</v>
+        <v>217.0109770665575</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.66247118342558</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9719,7 +9719,7 @@
         <v>79.31730657759788</v>
       </c>
       <c r="K24" t="n">
-        <v>213.709740774402</v>
+        <v>71.42369315421384</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
@@ -9737,7 +9737,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>81.66247118342557</v>
+        <v>223.9485188036136</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>79.31730657759788</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>199.2824732949378</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9974,7 +9974,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>81.66247118342557</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10190,10 +10190,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>79.31730657759788</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10202,7 +10202,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>623.1450866466196</v>
+        <v>408.4489799397358</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10427,10 +10427,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>79.31730657759788</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>213.709740774402</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10442,13 +10442,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>459.013342624506</v>
       </c>
       <c r="P33" t="n">
-        <v>414.0015992319183</v>
+        <v>60.8751620870987</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.66247118342557</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10676,10 +10676,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>217.0109770665575</v>
       </c>
       <c r="O36" t="n">
-        <v>105.8869054796864</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>79.31730657759788</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>71.42369315421384</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>217.0109770665575</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>223.9485188036136</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>421.3890363425141</v>
+        <v>421.3890363425137</v>
       </c>
       <c r="L41" t="n">
         <v>542.9595789155856</v>
@@ -11138,7 +11138,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>79.31730657759788</v>
+        <v>79.31730657759786</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
@@ -11150,10 +11150,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>301.6120164314908</v>
       </c>
       <c r="O42" t="n">
-        <v>190.4879448446197</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236957</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11384,7 +11384,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>199.2824732949378</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11393,10 +11393,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>199.3054925250345</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>81.66247118342557</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>286.2004085234856</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>260.1464463116537</v>
       </c>
       <c r="H11" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>49.08216882037412</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.75303416897349</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>116.1569976096678</v>
       </c>
       <c r="U11" t="n">
-        <v>124.4199861993428</v>
+        <v>148.3962195139051</v>
       </c>
       <c r="V11" t="n">
-        <v>229.7067857636647</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>306.106983183578</v>
+        <v>205.7305524491017</v>
       </c>
       <c r="G14" t="n">
-        <v>120.4046686622133</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>220.7810993966899</v>
       </c>
       <c r="I14" t="n">
-        <v>49.08216882037406</v>
+        <v>49.08216882037408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.75303416897346</v>
+        <v>70.75303416897347</v>
       </c>
       <c r="T14" t="n">
         <v>116.1569976096678</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>68.99806788573028</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.26590307950147</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>47.7321648062286</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>21.26590307950146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>47.73216480622816</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>68.99806788572998</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2.328201365533772</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>66.66986652019575</v>
       </c>
       <c r="U23" t="n">
-        <v>2.32820136553363</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>265.1930295256954</v>
       </c>
       <c r="E26" t="n">
-        <v>77.3872323283795</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>306.1069831835781</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>307.5706534574077</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>220.78109939669</v>
       </c>
       <c r="I26" t="n">
-        <v>49.08216882037411</v>
+        <v>49.08216882037414</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.7530341689735</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>148.3962195139052</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>127.447554702048</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>254.8127212694758</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>70.7530341689735</v>
       </c>
       <c r="T29" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>148.3962195139052</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>229.7067857636648</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>224.7365107555069</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>285.703741270567</v>
       </c>
     </row>
     <row r="30">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>245.8870349025009</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>220.7810993966899</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>49.08216882037408</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>148.3962195139051</v>
       </c>
       <c r="V41" t="n">
-        <v>205.7305524491015</v>
+        <v>229.7067857636648</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>220.7810993966899</v>
+        <v>128.7080126191465</v>
       </c>
       <c r="I44" t="n">
-        <v>49.08216882037408</v>
+        <v>49.08216882037407</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>70.75303416897347</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>116.1569976096678</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>148.3962195139051</v>
       </c>
       <c r="V44" t="n">
-        <v>205.7305524491015</v>
+        <v>229.7067857636648</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>255.0068852416217</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>646128.4866423549</v>
+        <v>646128.486642355</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>646128.4866423549</v>
+        <v>646128.486642355</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>748433.4589818276</v>
       </c>
       <c r="C2" t="n">
-        <v>748433.4589818274</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="D2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818276</v>
       </c>
       <c r="E2" t="n">
-        <v>685499.5043971124</v>
+        <v>685499.5043971125</v>
       </c>
       <c r="F2" t="n">
-        <v>685499.5043971124</v>
+        <v>685499.5043971123</v>
       </c>
       <c r="G2" t="n">
+        <v>743078.5189332163</v>
+      </c>
+      <c r="H2" t="n">
+        <v>743078.5189332163</v>
+      </c>
+      <c r="I2" t="n">
         <v>743078.5189332165</v>
       </c>
-      <c r="H2" t="n">
-        <v>743078.5189332166</v>
-      </c>
-      <c r="I2" t="n">
-        <v>743078.5189332166</v>
-      </c>
       <c r="J2" t="n">
-        <v>685499.5043971124</v>
+        <v>685499.5043971123</v>
       </c>
       <c r="K2" t="n">
         <v>685499.5043971124</v>
       </c>
       <c r="L2" t="n">
-        <v>748433.4589818273</v>
+        <v>748433.4589818275</v>
       </c>
       <c r="M2" t="n">
+        <v>748433.4589818274</v>
+      </c>
+      <c r="N2" t="n">
         <v>748433.4589818276</v>
       </c>
-      <c r="N2" t="n">
-        <v>748433.4589818275</v>
-      </c>
       <c r="O2" t="n">
-        <v>685499.504397113</v>
+        <v>685499.5043971129</v>
       </c>
       <c r="P2" t="n">
-        <v>685499.5043971122</v>
+        <v>685499.5043971131</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.0434807532</v>
+        <v>45486.04348075322</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333804.0855531392</v>
+        <v>333804.0855531396</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39589.7048715776</v>
+        <v>39589.70487157755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>79045.23455768224</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>83122.15647948266</v>
+        <v>83122.15647948264</v>
       </c>
       <c r="M3" t="n">
-        <v>130899.7383742261</v>
+        <v>130899.7383742262</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>349259.4966305445</v>
       </c>
       <c r="E4" t="n">
-        <v>209474.827434671</v>
+        <v>209474.8274346709</v>
       </c>
       <c r="F4" t="n">
         <v>209474.8274346709</v>
@@ -26441,13 +26441,13 @@
         <v>242945.2742686127</v>
       </c>
       <c r="J4" t="n">
-        <v>209474.8274346708</v>
+        <v>209474.8274346709</v>
       </c>
       <c r="K4" t="n">
-        <v>209474.8274346708</v>
+        <v>209474.8274346709</v>
       </c>
       <c r="L4" t="n">
-        <v>246080.0675726013</v>
+        <v>246080.0675726014</v>
       </c>
       <c r="M4" t="n">
         <v>246080.0675726013</v>
@@ -26478,16 +26478,16 @@
         <v>41879.94747728385</v>
       </c>
       <c r="E5" t="n">
-        <v>51470.35590256676</v>
+        <v>51470.35590256678</v>
       </c>
       <c r="F5" t="n">
-        <v>51470.35590256678</v>
+        <v>51470.35590256679</v>
       </c>
       <c r="G5" t="n">
+        <v>55630.68952612761</v>
+      </c>
+      <c r="H5" t="n">
         <v>55630.6895261276</v>
-      </c>
-      <c r="H5" t="n">
-        <v>55630.68952612761</v>
       </c>
       <c r="I5" t="n">
         <v>55630.68952612761</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>311807.971393246</v>
+        <v>311807.9713932461</v>
       </c>
       <c r="C6" t="n">
-        <v>357294.014873999</v>
+        <v>357294.0148739991</v>
       </c>
       <c r="D6" t="n">
-        <v>357294.0148739989</v>
+        <v>357294.0148739992</v>
       </c>
       <c r="E6" t="n">
-        <v>90750.23550673551</v>
+        <v>89136.54436353741</v>
       </c>
       <c r="F6" t="n">
-        <v>424554.3210598747</v>
+        <v>422940.6299166767</v>
       </c>
       <c r="G6" t="n">
-        <v>404912.8502668986</v>
+        <v>404775.5441118059</v>
       </c>
       <c r="H6" t="n">
-        <v>444502.5551384763</v>
+        <v>444365.2489833834</v>
       </c>
       <c r="I6" t="n">
-        <v>444502.5551384763</v>
+        <v>444365.2489833835</v>
       </c>
       <c r="J6" t="n">
-        <v>345509.0865021925</v>
+        <v>343895.3953589945</v>
       </c>
       <c r="K6" t="n">
-        <v>424554.3210598748</v>
+        <v>422940.6299166769</v>
       </c>
       <c r="L6" t="n">
-        <v>363186.2169343953</v>
+        <v>363186.2169343955</v>
       </c>
       <c r="M6" t="n">
-        <v>315408.6350396521</v>
+        <v>315408.6350396519</v>
       </c>
       <c r="N6" t="n">
-        <v>446308.3734138781</v>
+        <v>446308.3734138783</v>
       </c>
       <c r="O6" t="n">
-        <v>424554.3210598753</v>
+        <v>422940.6299166773</v>
       </c>
       <c r="P6" t="n">
-        <v>424554.3210598745</v>
+        <v>422940.6299166775</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F2" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="G2" t="n">
         <v>153.3898266888253</v>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8124088687287</v>
+        <v>116.8124088687291</v>
       </c>
       <c r="F3" t="n">
         <v>116.8124088687291</v>
@@ -26776,10 +26776,10 @@
         <v>116.8124088687291</v>
       </c>
       <c r="O3" t="n">
-        <v>116.8124088687291</v>
+        <v>116.8124088687292</v>
       </c>
       <c r="P3" t="n">
-        <v>116.8124088687291</v>
+        <v>116.8124088687292</v>
       </c>
     </row>
     <row r="4">
@@ -26798,22 +26798,22 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>661.0008169882639</v>
+        <v>661.000816988264</v>
       </c>
       <c r="F4" t="n">
+        <v>661.0008169882641</v>
+      </c>
+      <c r="G4" t="n">
+        <v>661.0008169882641</v>
+      </c>
+      <c r="H4" t="n">
         <v>661.000816988264</v>
-      </c>
-      <c r="G4" t="n">
-        <v>661.000816988264</v>
-      </c>
-      <c r="H4" t="n">
-        <v>661.0008169882641</v>
       </c>
       <c r="I4" t="n">
         <v>661.0008169882641</v>
       </c>
       <c r="J4" t="n">
-        <v>661.000816988264</v>
+        <v>661.0008169882641</v>
       </c>
       <c r="K4" t="n">
         <v>661.0008169882641</v>
@@ -26916,25 +26916,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>49.487131089472</v>
+        <v>49.48713108947194</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>54.41556450988129</v>
+        <v>54.41556450988126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>103.9026955993533</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8124088687287</v>
+        <v>116.8124088687291</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2714176908321</v>
+        <v>525.2714176908322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974317</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2714176908321</v>
+        <v>525.2714176908322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.487131089472</v>
+        <v>49.48713108947194</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>54.41556450988129</v>
+        <v>54.41556450988126</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2714176908321</v>
+        <v>525.2714176908322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F2" t="n">
         <v>274.2802794854996</v>
       </c>
       <c r="G2" t="n">
-        <v>382.1243954182812</v>
+        <v>276.2135473829221</v>
       </c>
       <c r="H2" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>171.0890268032919</v>
+        <v>51.53857190211403</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27460,25 +27460,25 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F3" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>7.334433771665374</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -27520,7 +27520,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>108.6815316295543</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
@@ -27548,13 +27548,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>31.40539352330272</v>
       </c>
       <c r="G4" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I4" t="n">
         <v>142.7610139533483</v>
@@ -27587,13 +27587,13 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27602,10 +27602,10 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X4" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y4" t="n">
-        <v>100.2643523184678</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>361.0193114328815</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
         <v>274.2802794854996</v>
       </c>
       <c r="G5" t="n">
-        <v>276.2135473829221</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H5" t="n">
         <v>329.4930616586638</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="6">
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>60.89415116996361</v>
       </c>
       <c r="C6" t="n">
         <v>160.0866360314548</v>
@@ -27703,10 +27703,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>43.44581946525918</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -27794,7 +27794,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S7" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>208.9053428841169</v>
+        <v>170.7533749512692</v>
       </c>
       <c r="U7" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183593</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614622</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27855,7 +27855,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27864,13 +27864,13 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>274.2802794854996</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>382.1243954182812</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I8" t="n">
         <v>35.35962750586017</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27915,7 +27915,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>261.3117514030823</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
@@ -27940,19 +27940,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>46.24409343240548</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>165.7476376409751</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28013,22 +28013,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>14.75952479886257</v>
+        <v>128.5471033279335</v>
       </c>
       <c r="F10" t="n">
-        <v>90.86205972327184</v>
+        <v>15.22644912704888</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839672</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>148.0265635717656</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="C11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="D11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="E11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="G11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="H11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="I11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28137,28 +28137,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.233541916089</v>
+        <v>60.23354191608887</v>
       </c>
       <c r="S11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="T11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="U11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="V11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="W11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="X11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Y11" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="C13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="D13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="E13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="G13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="H13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="I13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="J13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="K13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="L13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="M13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="N13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="O13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="P13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="R13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="S13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="T13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="U13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="V13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="W13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="X13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="C14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="D14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="E14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="G14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="H14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="I14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28374,28 +28374,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.2335419160889</v>
+        <v>60.23354191608887</v>
       </c>
       <c r="S14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="T14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="U14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="V14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="W14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="X14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Y14" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="C16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="D16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="E16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="F16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="G16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="H16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="I16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="J16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="K16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="L16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="M16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="N16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="O16" t="n">
-        <v>103.9026955993528</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="P16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993535</v>
       </c>
       <c r="R16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="S16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="T16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="U16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="V16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="W16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="X16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.9026955993534</v>
+        <v>103.9026955993533</v>
       </c>
     </row>
     <row r="17">
@@ -28611,7 +28611,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.2335419160889</v>
+        <v>60.23354191608887</v>
       </c>
       <c r="S17" t="n">
         <v>153.3898266888253</v>
@@ -28724,7 +28724,7 @@
         <v>153.3898266888253</v>
       </c>
       <c r="C19" t="n">
-        <v>151.4753567002317</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>20.51329419366977</v>
+        <v>18.59882420507663</v>
       </c>
       <c r="R19" t="n">
         <v>138.5551836657863</v>
@@ -28848,7 +28848,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.23354191608888</v>
+        <v>60.23354191608887</v>
       </c>
       <c r="S20" t="n">
         <v>153.3898266888253</v>
@@ -28979,7 +28979,7 @@
         <v>153.3898266888253</v>
       </c>
       <c r="I22" t="n">
-        <v>134.5118644805291</v>
+        <v>136.4263344691227</v>
       </c>
       <c r="J22" t="n">
         <v>44.56404154796726</v>
@@ -29003,13 +29003,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>20.51329419366976</v>
+        <v>20.51329419366975</v>
       </c>
       <c r="R22" t="n">
         <v>138.5551836657863</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3898266888253</v>
+        <v>151.4753567002316</v>
       </c>
       <c r="T22" t="n">
         <v>153.3898266888253</v>
@@ -29240,13 +29240,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.51329419366975</v>
+        <v>18.59882420507606</v>
       </c>
       <c r="R25" t="n">
         <v>138.5551836657863</v>
       </c>
       <c r="S25" t="n">
-        <v>151.4753567002316</v>
+        <v>153.3898266888253</v>
       </c>
       <c r="T25" t="n">
         <v>153.3898266888253</v>
@@ -29474,7 +29474,7 @@
         <v>103.9026955993533</v>
       </c>
       <c r="P28" t="n">
-        <v>103.9026955993533</v>
+        <v>103.9026955993546</v>
       </c>
       <c r="Q28" t="n">
         <v>103.9026955993533</v>
@@ -29711,7 +29711,7 @@
         <v>103.9026955993533</v>
       </c>
       <c r="P31" t="n">
-        <v>103.9026955993535</v>
+        <v>103.9026955993533</v>
       </c>
       <c r="Q31" t="n">
         <v>103.9026955993533</v>
@@ -29960,10 +29960,10 @@
         <v>158.3182601092346</v>
       </c>
       <c r="T34" t="n">
-        <v>104.6031922937992</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="U34" t="n">
-        <v>158.3182601092346</v>
+        <v>104.603192293799</v>
       </c>
       <c r="V34" t="n">
         <v>158.3182601092346</v>
@@ -30143,7 +30143,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>104.6031922937992</v>
+        <v>158.3182601092346</v>
       </c>
       <c r="C37" t="n">
         <v>158.3182601092346</v>
@@ -30209,7 +30209,7 @@
         <v>158.3182601092346</v>
       </c>
       <c r="X37" t="n">
-        <v>158.3182601092346</v>
+        <v>104.6031922937994</v>
       </c>
       <c r="Y37" t="n">
         <v>158.3182601092346</v>
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.3182601092346</v>
+        <v>104.6031922937994</v>
       </c>
       <c r="C40" t="n">
         <v>158.3182601092346</v>
@@ -30398,7 +30398,7 @@
         <v>158.3182601092346</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1910224961389</v>
+        <v>155.9060903115744</v>
       </c>
       <c r="I40" t="n">
         <v>136.4263344691227</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4695976235928787</v>
+        <v>0.4695976235928806</v>
       </c>
       <c r="H11" t="n">
-        <v>4.80926666262057</v>
+        <v>4.80926666262059</v>
       </c>
       <c r="I11" t="n">
-        <v>18.10416238356447</v>
+        <v>18.10416238356455</v>
       </c>
       <c r="J11" t="n">
-        <v>39.85651130541612</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K11" t="n">
-        <v>59.73457871210269</v>
+        <v>59.73457871210293</v>
       </c>
       <c r="L11" t="n">
-        <v>74.10602698513325</v>
+        <v>74.10602698513357</v>
       </c>
       <c r="M11" t="n">
-        <v>82.45723372370311</v>
+        <v>82.45723372370345</v>
       </c>
       <c r="N11" t="n">
-        <v>83.79147797173638</v>
+        <v>83.79147797173674</v>
       </c>
       <c r="O11" t="n">
-        <v>79.12191660213469</v>
+        <v>79.12191660213502</v>
       </c>
       <c r="P11" t="n">
-        <v>67.52872526968549</v>
+        <v>67.52872526968576</v>
       </c>
       <c r="Q11" t="n">
-        <v>50.71126037476551</v>
+        <v>50.71126037476572</v>
       </c>
       <c r="R11" t="n">
-        <v>29.49836172301619</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S11" t="n">
-        <v>10.70095584762273</v>
+        <v>10.70095584762278</v>
       </c>
       <c r="T11" t="n">
-        <v>2.055663597277827</v>
+        <v>2.055663597277836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03756780988743028</v>
+        <v>0.03756780988743044</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2512568794534918</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H12" t="n">
-        <v>2.42661249366925</v>
+        <v>2.426612493669261</v>
       </c>
       <c r="I12" t="n">
-        <v>8.650730279429435</v>
+        <v>8.650730279429471</v>
       </c>
       <c r="J12" t="n">
-        <v>23.73826508906872</v>
+        <v>23.73826508906882</v>
       </c>
       <c r="K12" t="n">
-        <v>40.57247601245267</v>
+        <v>40.57247601245284</v>
       </c>
       <c r="L12" t="n">
-        <v>54.55470095326805</v>
+        <v>54.55470095326827</v>
       </c>
       <c r="M12" t="n">
-        <v>63.66276283345711</v>
+        <v>63.66276283345737</v>
       </c>
       <c r="N12" t="n">
-        <v>65.34772673119566</v>
+        <v>65.34772673119593</v>
       </c>
       <c r="O12" t="n">
-        <v>59.78040324435776</v>
+        <v>59.78040324435801</v>
       </c>
       <c r="P12" t="n">
-        <v>47.97904393704442</v>
+        <v>47.97904393704462</v>
       </c>
       <c r="Q12" t="n">
-        <v>32.07272026146678</v>
+        <v>32.07272026146692</v>
       </c>
       <c r="R12" t="n">
-        <v>15.59996660326154</v>
+        <v>15.59996660326161</v>
       </c>
       <c r="S12" t="n">
-        <v>4.666986335462882</v>
+        <v>4.666986335462902</v>
       </c>
       <c r="T12" t="n">
-        <v>1.012741544814732</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01653005785878236</v>
+        <v>0.01653005785878243</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2106453274681992</v>
+        <v>0.2106453274682001</v>
       </c>
       <c r="H13" t="n">
-        <v>1.872828456944536</v>
+        <v>1.872828456944544</v>
       </c>
       <c r="I13" t="n">
-        <v>6.334679484225483</v>
+        <v>6.334679484225509</v>
       </c>
       <c r="J13" t="n">
-        <v>14.89262465200168</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K13" t="n">
-        <v>24.47315713675986</v>
+        <v>24.47315713675997</v>
       </c>
       <c r="L13" t="n">
-        <v>31.31721532195391</v>
+        <v>31.31721532195404</v>
       </c>
       <c r="M13" t="n">
-        <v>33.01961255940144</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N13" t="n">
-        <v>32.23447997520181</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O13" t="n">
-        <v>29.77375955886875</v>
+        <v>29.77375955886887</v>
       </c>
       <c r="P13" t="n">
-        <v>25.47659487851746</v>
+        <v>25.47659487851757</v>
       </c>
       <c r="Q13" t="n">
-        <v>17.63867373917802</v>
+        <v>17.6386737391781</v>
       </c>
       <c r="R13" t="n">
-        <v>9.471379905979209</v>
+        <v>9.471379905979248</v>
       </c>
       <c r="S13" t="n">
-        <v>3.670973570513979</v>
+        <v>3.670973570513994</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9000300355459417</v>
+        <v>0.9000300355459455</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01148974513462906</v>
+        <v>0.01148974513462911</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4695976235928803</v>
+        <v>0.4695976235928806</v>
       </c>
       <c r="H14" t="n">
-        <v>4.809266662620586</v>
+        <v>4.80926666262059</v>
       </c>
       <c r="I14" t="n">
-        <v>18.10416238356453</v>
+        <v>18.10416238356455</v>
       </c>
       <c r="J14" t="n">
-        <v>39.85651130541626</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K14" t="n">
-        <v>59.73457871210289</v>
+        <v>59.73457871210293</v>
       </c>
       <c r="L14" t="n">
-        <v>74.10602698513351</v>
+        <v>74.10602698513357</v>
       </c>
       <c r="M14" t="n">
-        <v>82.4572337237034</v>
+        <v>82.45723372370345</v>
       </c>
       <c r="N14" t="n">
-        <v>83.79147797173667</v>
+        <v>83.79147797173674</v>
       </c>
       <c r="O14" t="n">
-        <v>79.12191660213496</v>
+        <v>79.12191660213502</v>
       </c>
       <c r="P14" t="n">
-        <v>67.52872526968572</v>
+        <v>67.52872526968576</v>
       </c>
       <c r="Q14" t="n">
-        <v>50.71126037476568</v>
+        <v>50.71126037476572</v>
       </c>
       <c r="R14" t="n">
-        <v>29.49836172301629</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S14" t="n">
-        <v>10.70095584762277</v>
+        <v>10.70095584762278</v>
       </c>
       <c r="T14" t="n">
-        <v>2.055663597277834</v>
+        <v>2.055663597277836</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03756780988743041</v>
+        <v>0.03756780988743044</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2512568794534927</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H15" t="n">
-        <v>2.426612493669259</v>
+        <v>2.426612493669261</v>
       </c>
       <c r="I15" t="n">
-        <v>8.650730279429464</v>
+        <v>8.650730279429471</v>
       </c>
       <c r="J15" t="n">
-        <v>23.7382650890688</v>
+        <v>23.73826508906882</v>
       </c>
       <c r="K15" t="n">
-        <v>40.57247601245281</v>
+        <v>40.57247601245284</v>
       </c>
       <c r="L15" t="n">
-        <v>54.55470095326823</v>
+        <v>54.55470095326827</v>
       </c>
       <c r="M15" t="n">
-        <v>63.66276283345732</v>
+        <v>63.66276283345737</v>
       </c>
       <c r="N15" t="n">
-        <v>65.34772673119589</v>
+        <v>65.34772673119593</v>
       </c>
       <c r="O15" t="n">
-        <v>59.78040324435797</v>
+        <v>59.78040324435801</v>
       </c>
       <c r="P15" t="n">
-        <v>47.97904393704459</v>
+        <v>47.97904393704462</v>
       </c>
       <c r="Q15" t="n">
-        <v>32.07272026146689</v>
+        <v>32.07272026146692</v>
       </c>
       <c r="R15" t="n">
-        <v>15.5999666032616</v>
+        <v>15.59996660326161</v>
       </c>
       <c r="S15" t="n">
-        <v>4.666986335462898</v>
+        <v>4.666986335462902</v>
       </c>
       <c r="T15" t="n">
-        <v>1.012741544814735</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01653005785878242</v>
+        <v>0.01653005785878243</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2106453274681999</v>
+        <v>0.2106453274682001</v>
       </c>
       <c r="H16" t="n">
-        <v>1.872828456944542</v>
+        <v>1.872828456944544</v>
       </c>
       <c r="I16" t="n">
-        <v>6.334679484225505</v>
+        <v>6.334679484225509</v>
       </c>
       <c r="J16" t="n">
-        <v>14.89262465200173</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K16" t="n">
-        <v>24.47315713675995</v>
+        <v>24.47315713675997</v>
       </c>
       <c r="L16" t="n">
-        <v>31.31721532195402</v>
+        <v>31.31721532195404</v>
       </c>
       <c r="M16" t="n">
-        <v>33.01961255940155</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N16" t="n">
-        <v>32.23447997520192</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O16" t="n">
-        <v>29.77375955886885</v>
+        <v>29.77375955886887</v>
       </c>
       <c r="P16" t="n">
-        <v>25.47659487851755</v>
+        <v>25.47659487851757</v>
       </c>
       <c r="Q16" t="n">
-        <v>17.63867373917808</v>
+        <v>17.6386737391781</v>
       </c>
       <c r="R16" t="n">
-        <v>9.471379905979241</v>
+        <v>9.471379905979248</v>
       </c>
       <c r="S16" t="n">
-        <v>3.670973570513992</v>
+        <v>3.670973570513994</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9000300355459449</v>
+        <v>0.9000300355459455</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0114897451346291</v>
+        <v>0.01148974513462911</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4695976235928803</v>
+        <v>0.4695976235928805</v>
       </c>
       <c r="H17" t="n">
-        <v>4.809266662620586</v>
+        <v>4.809266662620589</v>
       </c>
       <c r="I17" t="n">
-        <v>18.10416238356453</v>
+        <v>18.10416238356455</v>
       </c>
       <c r="J17" t="n">
-        <v>39.85651130541626</v>
+        <v>39.85651130541628</v>
       </c>
       <c r="K17" t="n">
-        <v>59.73457871210289</v>
+        <v>59.73457871210292</v>
       </c>
       <c r="L17" t="n">
-        <v>74.10602698513351</v>
+        <v>74.10602698513355</v>
       </c>
       <c r="M17" t="n">
-        <v>82.4572337237034</v>
+        <v>82.45723372370344</v>
       </c>
       <c r="N17" t="n">
-        <v>83.79147797173667</v>
+        <v>83.79147797173673</v>
       </c>
       <c r="O17" t="n">
-        <v>79.12191660213496</v>
+        <v>79.12191660213502</v>
       </c>
       <c r="P17" t="n">
-        <v>67.52872526968572</v>
+        <v>67.52872526968576</v>
       </c>
       <c r="Q17" t="n">
-        <v>50.71126037476568</v>
+        <v>50.71126037476571</v>
       </c>
       <c r="R17" t="n">
-        <v>29.49836172301629</v>
+        <v>29.49836172301631</v>
       </c>
       <c r="S17" t="n">
-        <v>10.70095584762277</v>
+        <v>10.70095584762278</v>
       </c>
       <c r="T17" t="n">
-        <v>2.055663597277834</v>
+        <v>2.055663597277836</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03756780988743041</v>
+        <v>0.03756780988743044</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2512568794534927</v>
+        <v>0.2512568794534928</v>
       </c>
       <c r="H18" t="n">
-        <v>2.426612493669259</v>
+        <v>2.42661249366926</v>
       </c>
       <c r="I18" t="n">
-        <v>8.650730279429464</v>
+        <v>8.650730279429469</v>
       </c>
       <c r="J18" t="n">
-        <v>23.7382650890688</v>
+        <v>23.73826508906881</v>
       </c>
       <c r="K18" t="n">
-        <v>40.57247601245281</v>
+        <v>40.57247601245283</v>
       </c>
       <c r="L18" t="n">
-        <v>54.55470095326823</v>
+        <v>54.55470095326826</v>
       </c>
       <c r="M18" t="n">
-        <v>63.66276283345732</v>
+        <v>63.66276283345736</v>
       </c>
       <c r="N18" t="n">
-        <v>65.34772673119589</v>
+        <v>65.34772673119593</v>
       </c>
       <c r="O18" t="n">
-        <v>59.78040324435797</v>
+        <v>59.78040324435801</v>
       </c>
       <c r="P18" t="n">
-        <v>47.97904393704459</v>
+        <v>47.97904393704462</v>
       </c>
       <c r="Q18" t="n">
-        <v>32.07272026146689</v>
+        <v>32.07272026146691</v>
       </c>
       <c r="R18" t="n">
         <v>15.5999666032616</v>
       </c>
       <c r="S18" t="n">
-        <v>4.666986335462898</v>
+        <v>4.666986335462901</v>
       </c>
       <c r="T18" t="n">
-        <v>1.012741544814735</v>
+        <v>1.012741544814736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01653005785878242</v>
+        <v>0.01653005785878243</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2106453274681999</v>
+        <v>0.2106453274682</v>
       </c>
       <c r="H19" t="n">
-        <v>1.872828456944542</v>
+        <v>1.872828456944543</v>
       </c>
       <c r="I19" t="n">
-        <v>6.334679484225505</v>
+        <v>6.334679484225508</v>
       </c>
       <c r="J19" t="n">
-        <v>14.89262465200173</v>
+        <v>14.89262465200174</v>
       </c>
       <c r="K19" t="n">
-        <v>24.47315713675995</v>
+        <v>24.47315713675996</v>
       </c>
       <c r="L19" t="n">
-        <v>31.31721532195402</v>
+        <v>31.31721532195403</v>
       </c>
       <c r="M19" t="n">
-        <v>33.01961255940155</v>
+        <v>33.01961255940157</v>
       </c>
       <c r="N19" t="n">
-        <v>32.23447997520192</v>
+        <v>32.23447997520194</v>
       </c>
       <c r="O19" t="n">
-        <v>29.77375955886885</v>
+        <v>29.77375955886887</v>
       </c>
       <c r="P19" t="n">
-        <v>25.47659487851755</v>
+        <v>25.47659487851756</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.63867373917808</v>
+        <v>17.6386737391781</v>
       </c>
       <c r="R19" t="n">
-        <v>9.471379905979241</v>
+        <v>9.471379905979246</v>
       </c>
       <c r="S19" t="n">
-        <v>3.670973570513992</v>
+        <v>3.670973570513994</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9000300355459449</v>
+        <v>0.9000300355459454</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0114897451346291</v>
+        <v>0.01148974513462911</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4695976235928805</v>
+        <v>0.4695976235928806</v>
       </c>
       <c r="H20" t="n">
-        <v>4.809266662620589</v>
+        <v>4.80926666262059</v>
       </c>
       <c r="I20" t="n">
-        <v>18.10416238356454</v>
+        <v>18.10416238356455</v>
       </c>
       <c r="J20" t="n">
         <v>39.85651130541628</v>
       </c>
       <c r="K20" t="n">
-        <v>59.73457871210292</v>
+        <v>59.73457871210293</v>
       </c>
       <c r="L20" t="n">
-        <v>74.10602698513355</v>
+        <v>74.10602698513357</v>
       </c>
       <c r="M20" t="n">
-        <v>82.45723372370344</v>
+        <v>82.45723372370345</v>
       </c>
       <c r="N20" t="n">
-        <v>83.79147797173671</v>
+        <v>83.79147797173674</v>
       </c>
       <c r="O20" t="n">
-        <v>79.121916602135</v>
+        <v>79.12191660213502</v>
       </c>
       <c r="P20" t="n">
-        <v>67.52872526968575</v>
+        <v>67.52872526968576</v>
       </c>
       <c r="Q20" t="n">
-        <v>50.71126037476571</v>
+        <v>50.71126037476572</v>
       </c>
       <c r="R20" t="n">
         <v>29.49836172301631</v>
       </c>
       <c r="S20" t="n">
-        <v>10.70095584762277</v>
+        <v>10.70095584762278</v>
       </c>
       <c r="T20" t="n">
-        <v>2.055663597277835</v>
+        <v>2.055663597277836</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03756780988743043</v>
+        <v>0.03756780988743044</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,40 +32545,40 @@
         <v>0.2512568794534928</v>
       </c>
       <c r="H21" t="n">
-        <v>2.42661249366926</v>
+        <v>2.426612493669261</v>
       </c>
       <c r="I21" t="n">
-        <v>8.650730279429469</v>
+        <v>8.650730279429471</v>
       </c>
       <c r="J21" t="n">
-        <v>23.73826508906881</v>
+        <v>23.73826508906882</v>
       </c>
       <c r="K21" t="n">
-        <v>40.57247601245283</v>
+        <v>40.57247601245284</v>
       </c>
       <c r="L21" t="n">
-        <v>54.55470095326826</v>
+        <v>54.55470095326827</v>
       </c>
       <c r="M21" t="n">
-        <v>63.66276283345736</v>
+        <v>63.66276283345737</v>
       </c>
       <c r="N21" t="n">
-        <v>65.34772673119592</v>
+        <v>65.34772673119593</v>
       </c>
       <c r="O21" t="n">
-        <v>59.780403244358</v>
+        <v>59.78040324435801</v>
       </c>
       <c r="P21" t="n">
-        <v>47.97904393704461</v>
+        <v>47.97904393704462</v>
       </c>
       <c r="Q21" t="n">
-        <v>32.07272026146691</v>
+        <v>32.07272026146692</v>
       </c>
       <c r="R21" t="n">
-        <v>15.5999666032616</v>
+        <v>15.59996660326161</v>
       </c>
       <c r="S21" t="n">
-        <v>4.666986335462901</v>
+        <v>4.666986335462902</v>
       </c>
       <c r="T21" t="n">
         <v>1.012741544814736</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2106453274682</v>
+        <v>0.2106453274682001</v>
       </c>
       <c r="H22" t="n">
-        <v>1.872828456944543</v>
+        <v>1.872828456944544</v>
       </c>
       <c r="I22" t="n">
-        <v>6.334679484225508</v>
+        <v>6.334679484225509</v>
       </c>
       <c r="J22" t="n">
         <v>14.89262465200174</v>
       </c>
       <c r="K22" t="n">
-        <v>24.47315713675996</v>
+        <v>24.47315713675997</v>
       </c>
       <c r="L22" t="n">
-        <v>31.31721532195403</v>
+        <v>31.31721532195404</v>
       </c>
       <c r="M22" t="n">
         <v>33.01961255940157</v>
@@ -32645,25 +32645,25 @@
         <v>32.23447997520194</v>
       </c>
       <c r="O22" t="n">
-        <v>29.77375955886886</v>
+        <v>29.77375955886887</v>
       </c>
       <c r="P22" t="n">
-        <v>25.47659487851756</v>
+        <v>25.47659487851757</v>
       </c>
       <c r="Q22" t="n">
         <v>17.6386737391781</v>
       </c>
       <c r="R22" t="n">
-        <v>9.471379905979246</v>
+        <v>9.471379905979248</v>
       </c>
       <c r="S22" t="n">
-        <v>3.670973570513993</v>
+        <v>3.670973570513994</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9000300355459453</v>
+        <v>0.9000300355459455</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0114897451346291</v>
+        <v>0.01148974513462911</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4695976235928806</v>
+        <v>0.4695976235928807</v>
       </c>
       <c r="H41" t="n">
         <v>4.80926666262059</v>
@@ -34131,40 +34131,40 @@
         <v>18.10416238356455</v>
       </c>
       <c r="J41" t="n">
-        <v>39.85651130541628</v>
+        <v>39.8565113054163</v>
       </c>
       <c r="K41" t="n">
-        <v>59.73457871210293</v>
+        <v>59.73457871210294</v>
       </c>
       <c r="L41" t="n">
-        <v>74.10602698513357</v>
+        <v>74.10602698513358</v>
       </c>
       <c r="M41" t="n">
-        <v>82.45723372370345</v>
+        <v>82.45723372370347</v>
       </c>
       <c r="N41" t="n">
-        <v>83.79147797173674</v>
+        <v>83.79147797173675</v>
       </c>
       <c r="O41" t="n">
-        <v>79.12191660213502</v>
+        <v>79.12191660213504</v>
       </c>
       <c r="P41" t="n">
-        <v>67.52872526968576</v>
+        <v>67.52872526968579</v>
       </c>
       <c r="Q41" t="n">
-        <v>50.71126037476572</v>
+        <v>50.71126037476573</v>
       </c>
       <c r="R41" t="n">
-        <v>29.49836172301631</v>
+        <v>29.49836172301632</v>
       </c>
       <c r="S41" t="n">
         <v>10.70095584762278</v>
       </c>
       <c r="T41" t="n">
-        <v>2.055663597277836</v>
+        <v>2.055663597277837</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03756780988743044</v>
+        <v>0.03756780988743045</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2512568794534928</v>
+        <v>0.251256879453493</v>
       </c>
       <c r="H42" t="n">
         <v>2.426612493669261</v>
       </c>
       <c r="I42" t="n">
-        <v>8.650730279429471</v>
+        <v>8.650730279429473</v>
       </c>
       <c r="J42" t="n">
-        <v>23.73826508906882</v>
+        <v>23.73826508906883</v>
       </c>
       <c r="K42" t="n">
-        <v>40.57247601245284</v>
+        <v>40.57247601245285</v>
       </c>
       <c r="L42" t="n">
-        <v>54.55470095326827</v>
+        <v>54.55470095326828</v>
       </c>
       <c r="M42" t="n">
-        <v>63.66276283345737</v>
+        <v>63.66276283345739</v>
       </c>
       <c r="N42" t="n">
-        <v>65.34772673119593</v>
+        <v>65.34772673119595</v>
       </c>
       <c r="O42" t="n">
-        <v>59.78040324435801</v>
+        <v>59.78040324435803</v>
       </c>
       <c r="P42" t="n">
-        <v>47.97904393704462</v>
+        <v>47.97904393704463</v>
       </c>
       <c r="Q42" t="n">
-        <v>32.07272026146692</v>
+        <v>32.07272026146693</v>
       </c>
       <c r="R42" t="n">
         <v>15.59996660326161</v>
@@ -34240,7 +34240,7 @@
         <v>4.666986335462902</v>
       </c>
       <c r="T42" t="n">
-        <v>1.012741544814736</v>
+        <v>1.012741544814737</v>
       </c>
       <c r="U42" t="n">
         <v>0.01653005785878243</v>
@@ -34286,25 +34286,25 @@
         <v>1.872828456944544</v>
       </c>
       <c r="I43" t="n">
-        <v>6.334679484225509</v>
+        <v>6.334679484225511</v>
       </c>
       <c r="J43" t="n">
-        <v>14.89262465200174</v>
+        <v>14.89262465200175</v>
       </c>
       <c r="K43" t="n">
         <v>24.47315713675997</v>
       </c>
       <c r="L43" t="n">
-        <v>31.31721532195404</v>
+        <v>31.31721532195405</v>
       </c>
       <c r="M43" t="n">
-        <v>33.01961255940157</v>
+        <v>33.01961255940158</v>
       </c>
       <c r="N43" t="n">
-        <v>32.23447997520194</v>
+        <v>32.23447997520196</v>
       </c>
       <c r="O43" t="n">
-        <v>29.77375955886887</v>
+        <v>29.77375955886888</v>
       </c>
       <c r="P43" t="n">
         <v>25.47659487851757</v>
@@ -34313,13 +34313,13 @@
         <v>17.6386737391781</v>
       </c>
       <c r="R43" t="n">
-        <v>9.471379905979248</v>
+        <v>9.47137990597925</v>
       </c>
       <c r="S43" t="n">
-        <v>3.670973570513994</v>
+        <v>3.670973570513995</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9000300355459455</v>
+        <v>0.9000300355459457</v>
       </c>
       <c r="U43" t="n">
         <v>0.01148974513462911</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4695976235928806</v>
+        <v>0.4695976235928807</v>
       </c>
       <c r="H44" t="n">
         <v>4.80926666262059</v>
@@ -34368,40 +34368,40 @@
         <v>18.10416238356455</v>
       </c>
       <c r="J44" t="n">
-        <v>39.85651130541628</v>
+        <v>39.8565113054163</v>
       </c>
       <c r="K44" t="n">
-        <v>59.73457871210293</v>
+        <v>59.73457871210294</v>
       </c>
       <c r="L44" t="n">
-        <v>74.10602698513357</v>
+        <v>74.10602698513358</v>
       </c>
       <c r="M44" t="n">
-        <v>82.45723372370345</v>
+        <v>82.45723372370347</v>
       </c>
       <c r="N44" t="n">
-        <v>83.79147797173674</v>
+        <v>83.79147797173675</v>
       </c>
       <c r="O44" t="n">
-        <v>79.12191660213502</v>
+        <v>79.12191660213504</v>
       </c>
       <c r="P44" t="n">
-        <v>67.52872526968576</v>
+        <v>67.52872526968579</v>
       </c>
       <c r="Q44" t="n">
-        <v>50.71126037476572</v>
+        <v>50.71126037476573</v>
       </c>
       <c r="R44" t="n">
-        <v>29.49836172301631</v>
+        <v>29.49836172301632</v>
       </c>
       <c r="S44" t="n">
         <v>10.70095584762278</v>
       </c>
       <c r="T44" t="n">
-        <v>2.055663597277836</v>
+        <v>2.055663597277837</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03756780988743044</v>
+        <v>0.03756780988743045</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2512568794534928</v>
+        <v>0.251256879453493</v>
       </c>
       <c r="H45" t="n">
         <v>2.426612493669261</v>
       </c>
       <c r="I45" t="n">
-        <v>8.650730279429471</v>
+        <v>8.650730279429473</v>
       </c>
       <c r="J45" t="n">
-        <v>23.73826508906882</v>
+        <v>23.73826508906883</v>
       </c>
       <c r="K45" t="n">
-        <v>40.57247601245284</v>
+        <v>40.57247601245285</v>
       </c>
       <c r="L45" t="n">
-        <v>54.55470095326827</v>
+        <v>54.55470095326828</v>
       </c>
       <c r="M45" t="n">
-        <v>63.66276283345737</v>
+        <v>63.66276283345739</v>
       </c>
       <c r="N45" t="n">
-        <v>65.34772673119593</v>
+        <v>65.34772673119595</v>
       </c>
       <c r="O45" t="n">
-        <v>59.78040324435801</v>
+        <v>59.78040324435803</v>
       </c>
       <c r="P45" t="n">
-        <v>47.97904393704462</v>
+        <v>47.97904393704463</v>
       </c>
       <c r="Q45" t="n">
-        <v>32.07272026146692</v>
+        <v>32.07272026146693</v>
       </c>
       <c r="R45" t="n">
         <v>15.59996660326161</v>
@@ -34477,7 +34477,7 @@
         <v>4.666986335462902</v>
       </c>
       <c r="T45" t="n">
-        <v>1.012741544814736</v>
+        <v>1.012741544814737</v>
       </c>
       <c r="U45" t="n">
         <v>0.01653005785878243</v>
@@ -34523,25 +34523,25 @@
         <v>1.872828456944544</v>
       </c>
       <c r="I46" t="n">
-        <v>6.334679484225509</v>
+        <v>6.334679484225511</v>
       </c>
       <c r="J46" t="n">
-        <v>14.89262465200174</v>
+        <v>14.89262465200175</v>
       </c>
       <c r="K46" t="n">
         <v>24.47315713675997</v>
       </c>
       <c r="L46" t="n">
-        <v>31.31721532195404</v>
+        <v>31.31721532195405</v>
       </c>
       <c r="M46" t="n">
-        <v>33.01961255940157</v>
+        <v>33.01961255940158</v>
       </c>
       <c r="N46" t="n">
-        <v>32.23447997520194</v>
+        <v>32.23447997520196</v>
       </c>
       <c r="O46" t="n">
-        <v>29.77375955886887</v>
+        <v>29.77375955886888</v>
       </c>
       <c r="P46" t="n">
         <v>25.47659487851757</v>
@@ -34550,13 +34550,13 @@
         <v>17.6386737391781</v>
       </c>
       <c r="R46" t="n">
-        <v>9.471379905979248</v>
+        <v>9.47137990597925</v>
       </c>
       <c r="S46" t="n">
-        <v>3.670973570513994</v>
+        <v>3.670973570513995</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9000300355459455</v>
+        <v>0.9000300355459457</v>
       </c>
       <c r="U46" t="n">
         <v>0.01148974513462911</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.85926832931629</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>135.7293992974318</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>69.38260888833736</v>
       </c>
-      <c r="L3" t="n">
-        <v>135.7293992974318</v>
-      </c>
       <c r="M3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448833</v>
       </c>
       <c r="L4" t="n">
         <v>101.6233125255146</v>
@@ -34938,22 +34938,22 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="L5" t="n">
-        <v>97.86286533098477</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="Q5" t="n">
         <v>95.38611483488586</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>135.7293992974318</v>
@@ -35111,7 +35111,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P7" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="L8" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O9" t="n">
-        <v>130.2453831642022</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="P9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>112.5823136011794</v>
+        <v>112.5823136011796</v>
       </c>
       <c r="K11" t="n">
-        <v>302.3006110805701</v>
+        <v>302.3006110805704</v>
       </c>
       <c r="L11" t="n">
-        <v>425.5053937376042</v>
+        <v>425.5053937376045</v>
       </c>
       <c r="M11" t="n">
-        <v>479.6685127672263</v>
+        <v>479.6685127672266</v>
       </c>
       <c r="N11" t="n">
-        <v>465.9443655350856</v>
+        <v>465.944365535086</v>
       </c>
       <c r="O11" t="n">
-        <v>387.2073554635831</v>
+        <v>387.2073554635834</v>
       </c>
       <c r="P11" t="n">
-        <v>297.9902368414564</v>
+        <v>297.9902368414567</v>
       </c>
       <c r="Q11" t="n">
-        <v>146.0973752096514</v>
+        <v>146.0973752096516</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K12" t="n">
-        <v>272.3811149621382</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L12" t="n">
-        <v>424.0717162766172</v>
+        <v>424.0717162766174</v>
       </c>
       <c r="M12" t="n">
-        <v>553.5954431468172</v>
+        <v>338.8993364399334</v>
       </c>
       <c r="N12" t="n">
-        <v>581.7776723101068</v>
+        <v>581.7776723101072</v>
       </c>
       <c r="O12" t="n">
-        <v>455.941969692995</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P12" t="n">
-        <v>223.0313698028705</v>
+        <v>353.1264371448196</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.33865405138603</v>
+        <v>59.33865405138607</v>
       </c>
       <c r="K13" t="n">
-        <v>162.3194767206015</v>
+        <v>162.3194767206016</v>
       </c>
       <c r="L13" t="n">
-        <v>236.8432234468219</v>
+        <v>236.843223446822</v>
       </c>
       <c r="M13" t="n">
-        <v>256.107667883605</v>
+        <v>256.1076678836051</v>
       </c>
       <c r="N13" t="n">
-        <v>255.7557025943535</v>
+        <v>255.7557025943536</v>
       </c>
       <c r="O13" t="n">
-        <v>233.134683941747</v>
+        <v>233.1346839417471</v>
       </c>
       <c r="P13" t="n">
-        <v>192.9838194961918</v>
+        <v>192.9838194961919</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.38940140568351</v>
+        <v>83.38940140568357</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>112.5823136011795</v>
+        <v>112.5823136011796</v>
       </c>
       <c r="K14" t="n">
-        <v>302.3006110805703</v>
+        <v>302.3006110805704</v>
       </c>
       <c r="L14" t="n">
-        <v>425.5053937376044</v>
+        <v>425.5053937376045</v>
       </c>
       <c r="M14" t="n">
         <v>479.6685127672266</v>
       </c>
       <c r="N14" t="n">
-        <v>465.9443655350859</v>
+        <v>465.944365535086</v>
       </c>
       <c r="O14" t="n">
         <v>387.2073554635834</v>
       </c>
       <c r="P14" t="n">
-        <v>297.9902368414566</v>
+        <v>297.9902368414567</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.0973752096515</v>
+        <v>146.0973752096516</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>272.3811149621383</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L15" t="n">
         <v>424.0717162766174</v>
@@ -35737,13 +35737,13 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N15" t="n">
-        <v>581.7776723101071</v>
+        <v>581.7776723101072</v>
       </c>
       <c r="O15" t="n">
-        <v>455.9419696929952</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P15" t="n">
-        <v>223.0313698028696</v>
+        <v>223.0313698028691</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.33865405138609</v>
+        <v>59.33865405138607</v>
       </c>
       <c r="K16" t="n">
         <v>162.3194767206016</v>
@@ -35819,13 +35819,13 @@
         <v>255.7557025943536</v>
       </c>
       <c r="O16" t="n">
-        <v>233.1346839417466</v>
+        <v>233.1346839417471</v>
       </c>
       <c r="P16" t="n">
         <v>192.9838194961919</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.38940140568359</v>
+        <v>83.3894014056837</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>112.5823136011795</v>
+        <v>112.5823136011796</v>
       </c>
       <c r="K17" t="n">
-        <v>302.3006110805703</v>
+        <v>302.3006110805704</v>
       </c>
       <c r="L17" t="n">
-        <v>425.5053937376044</v>
+        <v>425.5053937376045</v>
       </c>
       <c r="M17" t="n">
         <v>479.6685127672266</v>
@@ -35901,10 +35901,10 @@
         <v>387.2073554635834</v>
       </c>
       <c r="P17" t="n">
-        <v>297.9902368414566</v>
+        <v>297.9902368414567</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.0973752096515</v>
+        <v>146.0973752096516</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>84.6010393649336</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K18" t="n">
-        <v>57.68500825525451</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L18" t="n">
         <v>424.0717162766174</v>
@@ -35974,13 +35974,13 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N18" t="n">
-        <v>581.7776723101071</v>
+        <v>581.7776723101072</v>
       </c>
       <c r="O18" t="n">
-        <v>455.9419696929952</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P18" t="n">
-        <v>353.1264371448196</v>
+        <v>138.4303304379358</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>58.41678112124825</v>
+        <v>58.41678112124826</v>
       </c>
       <c r="L19" t="n">
         <v>132.9405278474687</v>
@@ -36059,7 +36059,7 @@
         <v>129.2319883423938</v>
       </c>
       <c r="P19" t="n">
-        <v>89.08112389683855</v>
+        <v>89.08112389683856</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>112.5823136011796</v>
       </c>
       <c r="K20" t="n">
-        <v>302.3006110805703</v>
+        <v>302.3006110805704</v>
       </c>
       <c r="L20" t="n">
         <v>425.5053937376045</v>
@@ -36132,7 +36132,7 @@
         <v>479.6685127672266</v>
       </c>
       <c r="N20" t="n">
-        <v>465.9443655350859</v>
+        <v>465.944365535086</v>
       </c>
       <c r="O20" t="n">
         <v>387.2073554635834</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K21" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L21" t="n">
         <v>424.0717162766174</v>
@@ -36211,7 +36211,7 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N21" t="n">
-        <v>581.7776723101072</v>
+        <v>175.6435627300451</v>
       </c>
       <c r="O21" t="n">
         <v>455.9419696929953</v>
@@ -36220,7 +36220,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>142.2860476201881</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>424.0717162766174</v>
@@ -36457,7 +36457,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>142.286047620188</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K27" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L27" t="n">
         <v>424.0717162766174</v>
       </c>
       <c r="M27" t="n">
-        <v>553.5954431468174</v>
+        <v>147.4613335667553</v>
       </c>
       <c r="N27" t="n">
         <v>581.7776723101072</v>
@@ -36694,7 +36694,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.33865405138604</v>
+        <v>59.33865405138601</v>
       </c>
       <c r="K28" t="n">
-        <v>162.3194767206016</v>
+        <v>162.3194767206015</v>
       </c>
       <c r="L28" t="n">
         <v>236.843223446822</v>
@@ -36770,10 +36770,10 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P28" t="n">
-        <v>192.9838194961919</v>
+        <v>192.9838194961932</v>
       </c>
       <c r="Q28" t="n">
-        <v>83.38940140568354</v>
+        <v>83.38940140568351</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K30" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L30" t="n">
         <v>424.0717162766174</v>
@@ -36922,7 +36922,7 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N30" t="n">
-        <v>581.7776723101072</v>
+        <v>367.0815656032233</v>
       </c>
       <c r="O30" t="n">
         <v>455.9419696929953</v>
@@ -37007,7 +37007,7 @@
         <v>233.1346839417471</v>
       </c>
       <c r="P31" t="n">
-        <v>192.983819496192</v>
+        <v>192.9838194961919</v>
       </c>
       <c r="Q31" t="n">
         <v>83.38940140568354</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>84.60103936493361</v>
       </c>
       <c r="K33" t="n">
-        <v>142.2860476201881</v>
+        <v>272.3811149621384</v>
       </c>
       <c r="L33" t="n">
         <v>424.0717162766174</v>
@@ -37162,13 +37162,13 @@
         <v>581.7776723101072</v>
       </c>
       <c r="O33" t="n">
-        <v>455.9419696929953</v>
+        <v>402.9342972577529</v>
       </c>
       <c r="P33" t="n">
-        <v>353.1264371448196</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>191.4380028731782</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N36" t="n">
-        <v>581.7776723101072</v>
+        <v>175.6435627300451</v>
       </c>
       <c r="O36" t="n">
-        <v>49.80786011293331</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P36" t="n">
         <v>353.1264371448196</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>84.60103936493361</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>272.3811149621384</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>424.0717162766174</v>
@@ -37633,7 +37633,7 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N39" t="n">
-        <v>175.6435627300451</v>
+        <v>581.7776723101072</v>
       </c>
       <c r="O39" t="n">
         <v>455.9419696929953</v>
@@ -37642,7 +37642,7 @@
         <v>353.1264371448196</v>
       </c>
       <c r="Q39" t="n">
-        <v>191.4380028731782</v>
+        <v>142.286047620188</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>112.5823136011794</v>
+        <v>112.5823136011796</v>
       </c>
       <c r="K41" t="n">
-        <v>302.3006110805704</v>
+        <v>302.30061108057</v>
       </c>
       <c r="L41" t="n">
         <v>425.5053937376045</v>
@@ -37794,7 +37794,7 @@
         <v>465.944365535086</v>
       </c>
       <c r="O41" t="n">
-        <v>387.2073554635834</v>
+        <v>387.2073554635835</v>
       </c>
       <c r="P41" t="n">
         <v>297.9902368414567</v>
@@ -37870,16 +37870,16 @@
         <v>553.5954431468174</v>
       </c>
       <c r="N42" t="n">
-        <v>581.7776723101072</v>
+        <v>260.2446020949785</v>
       </c>
       <c r="O42" t="n">
-        <v>134.4088994778666</v>
+        <v>455.9419696929953</v>
       </c>
       <c r="P42" t="n">
         <v>353.1264371448196</v>
       </c>
       <c r="Q42" t="n">
-        <v>191.4380028731782</v>
+        <v>191.4380028731783</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>112.5823136011794</v>
+        <v>112.5823136011791</v>
       </c>
       <c r="K44" t="n">
         <v>302.3006110805704</v>
@@ -38031,7 +38031,7 @@
         <v>465.944365535086</v>
       </c>
       <c r="O44" t="n">
-        <v>387.2073554635834</v>
+        <v>387.2073554635835</v>
       </c>
       <c r="P44" t="n">
         <v>297.9902368414567</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>84.60103936493361</v>
+        <v>84.60103936493363</v>
       </c>
       <c r="K45" t="n">
         <v>272.3811149621384</v>
@@ -38104,7 +38104,7 @@
         <v>424.0717162766174</v>
       </c>
       <c r="M45" t="n">
-        <v>553.5954431468174</v>
+        <v>147.4613335667553</v>
       </c>
       <c r="N45" t="n">
         <v>581.7776723101072</v>
@@ -38113,10 +38113,10 @@
         <v>455.9419696929953</v>
       </c>
       <c r="P45" t="n">
-        <v>138.4303304379358</v>
+        <v>353.1264371448196</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>191.4380028731783</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
